--- a/Data Structures/linked_list/Linked_List_Test_Data.xlsx
+++ b/Data Structures/linked_list/Linked_List_Test_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>64 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</t>
   </si>
@@ -93,14 +93,42 @@
     <t>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</t>
   </si>
   <si>
-    <t>Linked List Key Range 10000</t>
+    <t xml:space="preserve"> Locked Linked List Key Range 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lockless Linked List Key Range 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lockless Linked List Key Range 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lockless Linked List Key Range 100000000</t>
+  </si>
+  <si>
+    <t>Stoker</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Cube</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,19 +154,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O101"/>
+  <dimension ref="A4:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +486,7 @@
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,17 +522,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -527,28 +564,28 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>19352</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>7691</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>9197</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>15179</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>15582</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>14771</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>16412</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>13288</v>
       </c>
     </row>
@@ -556,28 +593,28 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>19593</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>18810</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>22573</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>2484151</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>21938</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>34588</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>3361155</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>5240420</v>
       </c>
     </row>
@@ -585,28 +622,28 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>19175</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>22986</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>44462</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>111410</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>210779</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>361623</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>436471</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>410595</v>
       </c>
     </row>
@@ -614,28 +651,28 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>18149</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>17</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>33</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>90</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>129</v>
       </c>
     </row>
@@ -643,28 +680,28 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>22886</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>11149</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>21037</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>15053</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>8060</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>8038</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>8047</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>6347</v>
       </c>
     </row>
@@ -672,28 +709,28 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>19312</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>12582</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>15298</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>16114</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>10882</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>4506</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>5291</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>3019</v>
       </c>
     </row>
@@ -701,28 +738,28 @@
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>18184</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>11763</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>11329</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>10547</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>11933</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>12953</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>14533</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>8410</v>
       </c>
     </row>
@@ -730,28 +767,28 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>17569</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>11721</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>8652</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>11613</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>7704</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>6922</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>6662</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>6734</v>
       </c>
     </row>
@@ -759,28 +796,28 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>33609</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>47692</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>49533</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>40440</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>47463</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>47049</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>47768</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>47397</v>
       </c>
     </row>
@@ -788,28 +825,28 @@
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>33349</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>5091146</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>9784945</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>33137</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>43143</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>57969</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>43500</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>75062</v>
       </c>
     </row>
@@ -817,28 +854,28 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>33478</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>773845</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>242735</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>135142</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>153953</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>207157</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>272692</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>282835</v>
       </c>
     </row>
@@ -846,28 +883,28 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>33606</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>18</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>34</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>65</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>130</v>
       </c>
     </row>
@@ -875,28 +912,28 @@
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>33637</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>21205</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>21266</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>20693</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>21153</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>21079</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>20951</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>20969</v>
       </c>
     </row>
@@ -904,28 +941,28 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>33572</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>25760</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>53595</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>57890</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>35390</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>32984</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>44559</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>35642</v>
       </c>
     </row>
@@ -933,28 +970,28 @@
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>33083</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>23127</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>21157</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>17110</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>17610</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>16909</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>16949</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>21946</v>
       </c>
     </row>
@@ -962,28 +999,28 @@
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>33291</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>21129</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>21445</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>21032</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>21285</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>21330</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>21399</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="7">
         <v>21365</v>
       </c>
     </row>
@@ -991,28 +1028,28 @@
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>21222</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>14819</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>17862</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>24680</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>18891</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>19095</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>24403</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="7">
         <v>23015</v>
       </c>
     </row>
@@ -1020,28 +1057,28 @@
       <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>21006</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>24590</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>30433</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>5507364</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>6599426</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>5532070</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <v>5482486</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="7">
         <v>4436050</v>
       </c>
     </row>
@@ -1049,28 +1086,28 @@
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>20421</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>24451</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>66505</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>138300</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>126200</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>264191</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>164026</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="7">
         <v>162107</v>
       </c>
     </row>
@@ -1078,28 +1115,28 @@
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="8">
         <v>20943</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="8">
         <v>5</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="8">
         <v>9</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="8">
         <v>17</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="8">
         <v>33</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="8">
         <v>65</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="8">
         <v>129</v>
       </c>
     </row>
@@ -1107,28 +1144,28 @@
       <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>21302</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>13890</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>9375</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>9131</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>9104</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>9142</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>9108</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="7">
         <v>8986</v>
       </c>
     </row>
@@ -1136,239 +1173,595 @@
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>25344</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>12883</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>22546</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>25361</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>21629</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>10489</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>6302</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="7">
         <v>3007</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>21042</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>14108</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>17173</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>20160</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <v>14047</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>4095</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>2912</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7">
         <v>2201</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>21409</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>13265</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <v>9085</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>8949</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>9022</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>12421</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>15532</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="7">
         <v>15632</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>64</v>
+      </c>
+      <c r="I39">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1260361</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3223245</v>
+      </c>
+      <c r="D40" s="8">
+        <v>3831773</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2018335</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1117124</v>
+      </c>
+      <c r="G40" s="8">
+        <v>973184</v>
+      </c>
+      <c r="H40" s="8">
+        <v>957302</v>
+      </c>
+      <c r="I40" s="8">
+        <v>872011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3088997</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6476714</v>
+      </c>
+      <c r="D41" s="8">
+        <v>10930666</v>
+      </c>
+      <c r="E41" s="8">
+        <v>14064264</v>
+      </c>
+      <c r="F41" s="8">
+        <v>16707949</v>
+      </c>
+      <c r="G41" s="8">
+        <v>16452599</v>
+      </c>
+      <c r="H41" s="8">
+        <v>16119640</v>
+      </c>
+      <c r="I41" s="8">
+        <v>16283874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1564789</v>
+      </c>
+      <c r="C42" s="8">
+        <v>6644170</v>
+      </c>
+      <c r="D42" s="8">
+        <v>10082413</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1485215</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4991497</v>
+      </c>
+      <c r="G42" s="8">
+        <v>9434910</v>
+      </c>
+      <c r="H42" s="8">
+        <v>4795728</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1563694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
       <c r="B44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="E45" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
       <c r="L45" s="1"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L50" s="1"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>32</v>
+      </c>
+      <c r="H47">
+        <v>64</v>
+      </c>
+      <c r="I47">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="8">
+        <v>13038</v>
+      </c>
+      <c r="C48" s="8">
+        <v>7707</v>
+      </c>
+      <c r="D48" s="8">
+        <v>11241</v>
+      </c>
+      <c r="E48" s="8">
+        <v>14850</v>
+      </c>
+      <c r="F48" s="8">
+        <v>19893</v>
+      </c>
+      <c r="G48" s="8">
+        <v>28269</v>
+      </c>
+      <c r="H48" s="8">
+        <v>36159</v>
+      </c>
+      <c r="I48" s="8">
+        <v>41713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="8">
+        <v>22102</v>
+      </c>
+      <c r="C49" s="8">
+        <v>19411</v>
+      </c>
+      <c r="D49" s="8">
+        <v>71947</v>
+      </c>
+      <c r="E49" s="8">
+        <v>390928</v>
+      </c>
+      <c r="F49" s="8">
+        <v>204303</v>
+      </c>
+      <c r="G49" s="8">
+        <v>441122</v>
+      </c>
+      <c r="H49" s="8">
+        <v>86648</v>
+      </c>
+      <c r="I49" s="8">
+        <v>393695</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="8">
+        <v>15726</v>
+      </c>
+      <c r="C50" s="8">
+        <v>8789</v>
+      </c>
+      <c r="D50" s="8">
+        <v>15088</v>
+      </c>
+      <c r="E50" s="8">
+        <v>21429</v>
+      </c>
+      <c r="F50" s="8">
+        <v>26954</v>
+      </c>
+      <c r="G50" s="8">
+        <v>23518</v>
+      </c>
+      <c r="H50" s="8">
+        <v>21168</v>
+      </c>
+      <c r="I50" s="8">
+        <v>19748</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="L53" s="1"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
       <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="E58" s="2"/>
-      <c r="L58" s="1"/>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>32</v>
+      </c>
+      <c r="H55">
+        <v>64</v>
+      </c>
+      <c r="I55">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="8">
+        <v>12477</v>
+      </c>
+      <c r="C56" s="8">
+        <v>5590</v>
+      </c>
+      <c r="D56" s="8">
+        <v>8479</v>
+      </c>
+      <c r="E56" s="8">
+        <v>11799</v>
+      </c>
+      <c r="F56" s="8">
+        <v>16135</v>
+      </c>
+      <c r="G56" s="8">
+        <v>20660</v>
+      </c>
+      <c r="H56" s="8">
+        <v>23485</v>
+      </c>
+      <c r="I56" s="8">
+        <v>24492</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="8">
+        <v>21346</v>
+      </c>
+      <c r="C57" s="8">
+        <v>19221</v>
+      </c>
+      <c r="D57" s="8">
+        <v>50195</v>
+      </c>
+      <c r="E57" s="8">
+        <v>90360</v>
+      </c>
+      <c r="F57" s="8">
+        <v>125158</v>
+      </c>
+      <c r="G57" s="8">
+        <v>57110</v>
+      </c>
+      <c r="H57" s="8">
+        <v>40420</v>
+      </c>
+      <c r="I57" s="8">
+        <v>34840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="8">
+        <v>15387</v>
+      </c>
+      <c r="C58" s="8">
+        <v>7672</v>
+      </c>
+      <c r="D58" s="8">
+        <v>12221</v>
+      </c>
+      <c r="E58" s="8">
+        <v>17355</v>
+      </c>
+      <c r="F58" s="8">
+        <v>19129</v>
+      </c>
+      <c r="G58" s="8">
+        <v>15638</v>
+      </c>
+      <c r="H58" s="8">
+        <v>13232</v>
+      </c>
+      <c r="I58" s="8">
+        <v>11593</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
       <c r="L59" s="1"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
       <c r="B62" s="1"/>
-      <c r="E62" s="2"/>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="L65" s="1"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="L67" s="1"/>
+      <c r="O67" s="2"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="L68" s="1"/>
+      <c r="O68" s="2"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
-      <c r="E70" s="2"/>
-      <c r="L70" s="1"/>
-      <c r="O70" s="2"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="E71" s="2"/>
       <c r="L71" s="1"/>
-      <c r="O71" s="2"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
       <c r="L72" s="1"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="O72" s="2"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
-      <c r="E75" s="2"/>
-      <c r="L75" s="1"/>
-      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="L78" s="1"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
+      <c r="E79" s="2"/>
       <c r="L79" s="1"/>
+      <c r="O79" s="2"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="L80" s="1"/>
+      <c r="O80" s="2"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="L82" s="1"/>
-    </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
-      <c r="E83" s="2"/>
       <c r="L83" s="1"/>
-      <c r="O83" s="2"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
@@ -1376,33 +1769,40 @@
       <c r="L84" s="1"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
-      <c r="E88" s="2"/>
       <c r="L88" s="1"/>
-      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="L92" s="1"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="L93" s="1"/>
+      <c r="O93" s="2"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="L95" s="1"/>
-    </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
-      <c r="E96" s="2"/>
       <c r="L96" s="1"/>
-      <c r="O96" s="2"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
@@ -1410,23 +1810,46 @@
       <c r="L97" s="1"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-      <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="E101" s="2"/>
-      <c r="L101" s="1"/>
-      <c r="O101" s="2"/>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="E105" s="2"/>
+      <c r="L105" s="1"/>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="L106" s="1"/>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="E110" s="2"/>
+      <c r="L110" s="1"/>
+      <c r="O110" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A54:I54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data Structures/linked_list/Linked_List_Test_Data.xlsx
+++ b/Data Structures/linked_list/Linked_List_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="182">
   <si>
     <t>64 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</t>
   </si>
@@ -131,6 +131,441 @@
   <si>
     <t>Cube (100000000)</t>
   </si>
+  <si>
+    <t>task-clock</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>CPUs</t>
+  </si>
+  <si>
+    <t>utilized</t>
+  </si>
+  <si>
+    <t>context-switches</t>
+  </si>
+  <si>
+    <t>M/sec</t>
+  </si>
+  <si>
+    <t>CPU-migrations</t>
+  </si>
+  <si>
+    <t>page-faults</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t>GHz</t>
+  </si>
+  <si>
+    <t>[83.32%]</t>
+  </si>
+  <si>
+    <t>stalled-cycles-frontend</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>[83.33%]</t>
+  </si>
+  <si>
+    <t>stalled-cycles-backend</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>[66.61%]</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>insns</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>stalled</t>
+  </si>
+  <si>
+    <t>insn</t>
+  </si>
+  <si>
+    <t>[83.37%]</t>
+  </si>
+  <si>
+    <t>branches</t>
+  </si>
+  <si>
+    <t>[83.41%]</t>
+  </si>
+  <si>
+    <t>branch-misses</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>elapsed</t>
+  </si>
+  <si>
+    <t>Stoker Lockless 100</t>
+  </si>
+  <si>
+    <t>[83.49%]</t>
+  </si>
+  <si>
+    <t>[83.44%]</t>
+  </si>
+  <si>
+    <t>[66.46%]</t>
+  </si>
+  <si>
+    <t>[83.21%]</t>
+  </si>
+  <si>
+    <t>[83.27%]</t>
+  </si>
+  <si>
+    <t>[83.40%]</t>
+  </si>
+  <si>
+    <t>Stoker Lockless 100000000</t>
+  </si>
+  <si>
+    <t>[83.50%]</t>
+  </si>
+  <si>
+    <t>[66.42%]</t>
+  </si>
+  <si>
+    <t>[83.20%]</t>
+  </si>
+  <si>
+    <t>[83.30%]</t>
+  </si>
+  <si>
+    <t>[83.45%]</t>
+  </si>
+  <si>
+    <t>Stoker Lockless 100000</t>
+  </si>
+  <si>
+    <t>LOCKLESS PERF DATA BELOW</t>
+  </si>
+  <si>
+    <t>[83.07%]</t>
+  </si>
+  <si>
+    <t>[83.42%]</t>
+  </si>
+  <si>
+    <t>[66.97%]</t>
+  </si>
+  <si>
+    <t>[83.88%]</t>
+  </si>
+  <si>
+    <t>[83.69%]</t>
+  </si>
+  <si>
+    <t>Cube Lockless 100</t>
+  </si>
+  <si>
+    <t>[83.10%]</t>
+  </si>
+  <si>
+    <t>[66.33%]</t>
+  </si>
+  <si>
+    <t>[83.29%]</t>
+  </si>
+  <si>
+    <t>[83.56%]</t>
+  </si>
+  <si>
+    <t>[83.73%]</t>
+  </si>
+  <si>
+    <t>Cube Lockless 100000</t>
+  </si>
+  <si>
+    <t>[83.63%]</t>
+  </si>
+  <si>
+    <t>[66.22%]</t>
+  </si>
+  <si>
+    <t>[83.43%]</t>
+  </si>
+  <si>
+    <t>[83.59%]</t>
+  </si>
+  <si>
+    <t>Cube Lockless 100000000</t>
+  </si>
+  <si>
+    <t>LOCKED PERF DATA BELOW</t>
+  </si>
+  <si>
+    <t>[84.52%]</t>
+  </si>
+  <si>
+    <t>[82.83%]</t>
+  </si>
+  <si>
+    <t>[64.67%]</t>
+  </si>
+  <si>
+    <t>[84.89%]</t>
+  </si>
+  <si>
+    <t>Cube Locked</t>
+  </si>
+  <si>
+    <t>[83.28%]</t>
+  </si>
+  <si>
+    <t>[83.38%]</t>
+  </si>
+  <si>
+    <t>[64.93%]</t>
+  </si>
+  <si>
+    <t>[84.20%]</t>
+  </si>
+  <si>
+    <t>[84.83%]</t>
+  </si>
+  <si>
+    <t>[84.05%]</t>
+  </si>
+  <si>
+    <t>Stoker Locked</t>
+  </si>
+  <si>
+    <t>[83.54%]</t>
+  </si>
+  <si>
+    <t>[66.93%]</t>
+  </si>
+  <si>
+    <t>[83.46%]</t>
+  </si>
+  <si>
+    <t>[83.48%]</t>
+  </si>
+  <si>
+    <t>Stoker TTAS</t>
+  </si>
+  <si>
+    <t>[83.85%]</t>
+  </si>
+  <si>
+    <t>[81.98%]</t>
+  </si>
+  <si>
+    <t>[67.22%]</t>
+  </si>
+  <si>
+    <t>[83.92%]</t>
+  </si>
+  <si>
+    <t>[83.99%]</t>
+  </si>
+  <si>
+    <t>[83.86%]</t>
+  </si>
+  <si>
+    <t>Cube TTAS</t>
+  </si>
+  <si>
+    <t>[83.17%]</t>
+  </si>
+  <si>
+    <t>[66.35%]</t>
+  </si>
+  <si>
+    <t>Cube TTASNP</t>
+  </si>
+  <si>
+    <t>[83.51%]</t>
+  </si>
+  <si>
+    <t>[66.43%]</t>
+  </si>
+  <si>
+    <t>[83.35%]</t>
+  </si>
+  <si>
+    <t>[83.47%]</t>
+  </si>
+  <si>
+    <t>Stoker TTASNP</t>
+  </si>
+  <si>
+    <t>Cube CASLOCK</t>
+  </si>
+  <si>
+    <t>[83.39%]</t>
+  </si>
+  <si>
+    <t>[83.36%]</t>
+  </si>
+  <si>
+    <t>Stoker CASLOCK</t>
+  </si>
+  <si>
+    <t>[83.79%]</t>
+  </si>
+  <si>
+    <t>[83.57%]</t>
+  </si>
+  <si>
+    <t>[83.08%]</t>
+  </si>
+  <si>
+    <t>[83.03%]</t>
+  </si>
+  <si>
+    <t>[83.19%]</t>
+  </si>
+  <si>
+    <t>[66.82%]</t>
+  </si>
+  <si>
+    <t>[83.74%]</t>
+  </si>
+  <si>
+    <t>[82.92%]</t>
+  </si>
+  <si>
+    <t>[83.16%]</t>
+  </si>
+  <si>
+    <t>[66.88%]</t>
+  </si>
+  <si>
+    <t>[83.66%]</t>
+  </si>
+  <si>
+    <t>[83.81%]</t>
+  </si>
+  <si>
+    <t>Cube CASLOCKND</t>
+  </si>
+  <si>
+    <t>[83.25%]</t>
+  </si>
+  <si>
+    <t>[66.54%]</t>
+  </si>
+  <si>
+    <t>[83.34%]</t>
+  </si>
+  <si>
+    <t>Stoker CASLOCKND</t>
+  </si>
+  <si>
+    <t>[83.31%]</t>
+  </si>
+  <si>
+    <t>[66.71%]</t>
+  </si>
+  <si>
+    <t>Stoker TAS</t>
+  </si>
+  <si>
+    <t>[66.27%]</t>
+  </si>
+  <si>
+    <t>Cube TAS</t>
+  </si>
+  <si>
+    <t>[66.20%]</t>
+  </si>
+  <si>
+    <t>[83.52%]</t>
+  </si>
+  <si>
+    <t>Stoker TASWP</t>
+  </si>
+  <si>
+    <t>[82.61%]</t>
+  </si>
+  <si>
+    <t>[67.53%]</t>
+  </si>
+  <si>
+    <t>[83.96%]</t>
+  </si>
+  <si>
+    <t>[84.00%]</t>
+  </si>
+  <si>
+    <t>Cube TASWP</t>
+  </si>
+  <si>
+    <t>[82.95%]</t>
+  </si>
+  <si>
+    <t>[84.98%]</t>
+  </si>
+  <si>
+    <t>[68.20%]</t>
+  </si>
+  <si>
+    <t>[84.60%]</t>
+  </si>
+  <si>
+    <t>[84.61%]</t>
+  </si>
+  <si>
+    <t>Stoker TICKET</t>
+  </si>
+  <si>
+    <t>[84.07%]</t>
+  </si>
+  <si>
+    <t>[83.72%]</t>
+  </si>
+  <si>
+    <t>[69.55%]</t>
+  </si>
+  <si>
+    <t>[85.69%]</t>
+  </si>
+  <si>
+    <t>[85.75%]</t>
+  </si>
+  <si>
+    <t>[84.37%]</t>
+  </si>
+  <si>
+    <t>Cube TICKET</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -190,6 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -910,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96572544"/>
-        <c:axId val="96574464"/>
+        <c:axId val="43874944"/>
+        <c:axId val="43877120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96572544"/>
+        <c:axId val="43874944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +1379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96574464"/>
+        <c:crossAx val="43877120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -951,7 +1387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96574464"/>
+        <c:axId val="43877120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96572544"/>
+        <c:crossAx val="43874944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1046,7 +1482,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1212,11 +1647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101282560"/>
-        <c:axId val="101284480"/>
+        <c:axId val="58831616"/>
+        <c:axId val="58833536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101282560"/>
+        <c:axId val="58831616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,14 +1673,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101284480"/>
+        <c:crossAx val="58833536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,7 +1687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101284480"/>
+        <c:axId val="58833536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,21 +1710,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101282560"/>
+        <c:crossAx val="58831616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1348,7 +1780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1514,11 +1945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106042112"/>
-        <c:axId val="106044032"/>
+        <c:axId val="59134720"/>
+        <c:axId val="59136640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106042112"/>
+        <c:axId val="59134720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,14 +1971,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106044032"/>
+        <c:crossAx val="59136640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106044032"/>
+        <c:axId val="59136640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,21 +2008,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106042112"/>
+        <c:crossAx val="59134720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1958,11 +2386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106101760"/>
-        <c:axId val="101328000"/>
+        <c:axId val="58919936"/>
+        <c:axId val="58922112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106101760"/>
+        <c:axId val="58919936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +2419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101328000"/>
+        <c:crossAx val="58922112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1999,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101328000"/>
+        <c:axId val="58922112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +2457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106101760"/>
+        <c:crossAx val="58919936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2301,11 +2729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101355520"/>
-        <c:axId val="101357440"/>
+        <c:axId val="58978304"/>
+        <c:axId val="58980224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101355520"/>
+        <c:axId val="58978304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101357440"/>
+        <c:crossAx val="58980224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2342,7 +2770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101357440"/>
+        <c:axId val="58980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101355520"/>
+        <c:crossAx val="58978304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2644,11 +3072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101483264"/>
-        <c:axId val="101485184"/>
+        <c:axId val="59020032"/>
+        <c:axId val="59021952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101483264"/>
+        <c:axId val="59020032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +3105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101485184"/>
+        <c:crossAx val="59021952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2685,7 +3113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101485184"/>
+        <c:axId val="59021952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2715,7 +3143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101483264"/>
+        <c:crossAx val="59020032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2987,11 +3415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101516800"/>
-        <c:axId val="101518720"/>
+        <c:axId val="59053568"/>
+        <c:axId val="59055488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101516800"/>
+        <c:axId val="59053568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101518720"/>
+        <c:crossAx val="59055488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3028,7 +3456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101518720"/>
+        <c:axId val="59055488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +3486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101516800"/>
+        <c:crossAx val="59053568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,11 +3803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42876928"/>
-        <c:axId val="42878464"/>
+        <c:axId val="59086336"/>
+        <c:axId val="59088256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42876928"/>
+        <c:axId val="59086336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,7 +3836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42878464"/>
+        <c:crossAx val="59088256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3416,7 +3844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42878464"/>
+        <c:axId val="59088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42876928"/>
+        <c:crossAx val="59086336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3763,11 +4191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41088512"/>
-        <c:axId val="41170432"/>
+        <c:axId val="59270656"/>
+        <c:axId val="59272576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41088512"/>
+        <c:axId val="59270656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3796,7 +4224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41170432"/>
+        <c:crossAx val="59272576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3804,7 +4232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41170432"/>
+        <c:axId val="59272576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,7 +4262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41088512"/>
+        <c:crossAx val="59270656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4151,11 +4579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116030080"/>
-        <c:axId val="116040448"/>
+        <c:axId val="59299328"/>
+        <c:axId val="59301248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116030080"/>
+        <c:axId val="59299328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,7 +4612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116040448"/>
+        <c:crossAx val="59301248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4192,7 +4620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116040448"/>
+        <c:axId val="59301248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +4650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116030080"/>
+        <c:crossAx val="59299328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5031,11 +5459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45759104"/>
-        <c:axId val="45785856"/>
+        <c:axId val="59365632"/>
+        <c:axId val="59453824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45759104"/>
+        <c:axId val="59365632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5064,7 +5492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45785856"/>
+        <c:crossAx val="59453824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5072,7 +5500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45785856"/>
+        <c:axId val="59453824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45759104"/>
+        <c:crossAx val="59365632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5829,11 +6257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98980992"/>
-        <c:axId val="98982912"/>
+        <c:axId val="44235392"/>
+        <c:axId val="44311296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98980992"/>
+        <c:axId val="44235392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5862,7 +6290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98982912"/>
+        <c:crossAx val="44311296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5870,7 +6298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98982912"/>
+        <c:axId val="44311296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5900,7 +6328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98980992"/>
+        <c:crossAx val="44235392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6880,11 +7308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92727936"/>
-        <c:axId val="92840320"/>
+        <c:axId val="59508224"/>
+        <c:axId val="59510144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92727936"/>
+        <c:axId val="59508224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,7 +7341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92840320"/>
+        <c:crossAx val="59510144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6921,7 +7349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92840320"/>
+        <c:axId val="59510144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6951,7 +7379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92727936"/>
+        <c:crossAx val="59508224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7939,11 +8367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115342336"/>
-        <c:axId val="123714560"/>
+        <c:axId val="59580416"/>
+        <c:axId val="59582336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115342336"/>
+        <c:axId val="59580416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7972,7 +8400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123714560"/>
+        <c:crossAx val="59582336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7980,7 +8408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123714560"/>
+        <c:axId val="59582336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,7 +8438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115342336"/>
+        <c:crossAx val="59580416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8990,11 +9418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47088000"/>
-        <c:axId val="47090304"/>
+        <c:axId val="59709696"/>
+        <c:axId val="59711872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47088000"/>
+        <c:axId val="59709696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9023,7 +9451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47090304"/>
+        <c:crossAx val="59711872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9031,7 +9459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47090304"/>
+        <c:axId val="59711872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9061,7 +9489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47088000"/>
+        <c:crossAx val="59709696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9805,11 +10233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101078528"/>
-        <c:axId val="101080448"/>
+        <c:axId val="95004160"/>
+        <c:axId val="95006080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101078528"/>
+        <c:axId val="95004160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9838,7 +10266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101080448"/>
+        <c:crossAx val="95006080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9846,7 +10274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101080448"/>
+        <c:axId val="95006080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9876,7 +10304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101078528"/>
+        <c:crossAx val="95004160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10111,11 +10539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101102720"/>
-        <c:axId val="101104640"/>
+        <c:axId val="48050944"/>
+        <c:axId val="48052864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101102720"/>
+        <c:axId val="48050944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10144,7 +10572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101104640"/>
+        <c:crossAx val="48052864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10152,7 +10580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101104640"/>
+        <c:axId val="48052864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10182,7 +10610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101102720"/>
+        <c:crossAx val="48050944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10413,11 +10841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99181696"/>
-        <c:axId val="99183616"/>
+        <c:axId val="48087808"/>
+        <c:axId val="48089728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99181696"/>
+        <c:axId val="48087808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10446,7 +10874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99183616"/>
+        <c:crossAx val="48089728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10454,7 +10882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99183616"/>
+        <c:axId val="48089728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10484,7 +10912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99181696"/>
+        <c:crossAx val="48087808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10715,11 +11143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99218560"/>
-        <c:axId val="99220480"/>
+        <c:axId val="48124672"/>
+        <c:axId val="48126592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99218560"/>
+        <c:axId val="48124672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10748,7 +11176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99220480"/>
+        <c:crossAx val="48126592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10756,7 +11184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99220480"/>
+        <c:axId val="48126592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10786,7 +11214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99218560"/>
+        <c:crossAx val="48124672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11017,11 +11445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99271808"/>
-        <c:axId val="99273728"/>
+        <c:axId val="58721024"/>
+        <c:axId val="58722944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99271808"/>
+        <c:axId val="58721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11050,7 +11478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99273728"/>
+        <c:crossAx val="58722944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11058,7 +11486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99273728"/>
+        <c:axId val="58722944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11088,7 +11516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99271808"/>
+        <c:crossAx val="58721024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11153,7 +11581,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11319,11 +11746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101205120"/>
-        <c:axId val="101207040"/>
+        <c:axId val="58774272"/>
+        <c:axId val="58776192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101205120"/>
+        <c:axId val="58774272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11345,14 +11772,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101207040"/>
+        <c:crossAx val="58776192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11360,7 +11786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101207040"/>
+        <c:axId val="58776192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11383,21 +11809,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101205120"/>
+        <c:crossAx val="58774272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11455,7 +11879,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11621,11 +12044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101241600"/>
-        <c:axId val="101243520"/>
+        <c:axId val="58794752"/>
+        <c:axId val="58796672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101241600"/>
+        <c:axId val="58794752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11647,14 +12070,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101243520"/>
+        <c:crossAx val="58796672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11662,7 +12084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101243520"/>
+        <c:axId val="58796672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11685,21 +12107,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101241600"/>
+        <c:crossAx val="58794752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12330,7 +12750,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12360,7 +12780,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12386,13 +12806,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12704,16 +13124,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O110"/>
+  <dimension ref="A4:O389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G38" workbookViewId="0">
-      <selection activeCell="X52" sqref="X52"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -13907,172 +14327,5860 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
+      <c r="L60" s="1"/>
+      <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="1"/>
-      <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="A64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>149873.35596799999</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64">
+        <v>18.655999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="1">
+        <v>134958</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65">
+        <v>1E-3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1">
+        <v>5067</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="E67" s="2"/>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>54601</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
       <c r="L67" s="1"/>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>308349495678</v>
+      </c>
+      <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" t="s">
+        <v>47</v>
+      </c>
       <c r="L68" s="1"/>
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>285296938225</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s">
+        <v>51</v>
+      </c>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="E71" s="2"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>180482941723</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s">
+        <v>54</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>42223301600</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" t="s">
+        <v>58</v>
+      </c>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>6.76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" t="s">
+        <v>61</v>
+      </c>
       <c r="L72" s="1"/>
-      <c r="O72" s="2"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>14588062288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73">
+        <v>97.335999999999999</v>
+      </c>
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>33592720</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L75" s="1"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>8.033623146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="E79" s="2"/>
-      <c r="L79" s="1"/>
-      <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="E80" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9">
+        <v>178006.539888</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79">
+        <v>20.766999999999999</v>
+      </c>
+      <c r="F79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>4758</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
       <c r="L80" s="1"/>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>592</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
       <c r="L81" s="1"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>1644</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>42</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>377175536202</v>
+      </c>
+      <c r="C83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
       <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>349720597254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="F84" t="s">
+        <v>49</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>50</v>
+      </c>
+      <c r="I84" t="s">
+        <v>72</v>
+      </c>
       <c r="L84" s="1"/>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>176280348899</v>
+      </c>
+      <c r="C85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="F85" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>94999155749</v>
+      </c>
+      <c r="C86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86">
+        <v>0.25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" t="s">
+        <v>58</v>
+      </c>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87">
+        <v>3.68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" t="s">
+        <v>60</v>
+      </c>
+      <c r="H87" t="s">
+        <v>74</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>22358644463</v>
+      </c>
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88">
+        <v>125.60599999999999</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>1520248</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H89" t="s">
+        <v>62</v>
+      </c>
+      <c r="I89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>8.5715522960000001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" t="s">
+        <v>69</v>
+      </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-      <c r="E92" s="2"/>
-      <c r="L92" s="1"/>
-      <c r="O92" s="2"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
-      <c r="E93" s="2"/>
       <c r="L93" s="1"/>
-      <c r="O93" s="2"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" s="1">
+        <v>178448.158264</v>
+      </c>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="2">
+        <v>22.218</v>
+      </c>
+      <c r="F95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>4658</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>42</v>
+      </c>
       <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>615</v>
+      </c>
+      <c r="C97" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>42</v>
+      </c>
       <c r="L97" s="1"/>
-      <c r="O97" s="2"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-      <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-      <c r="L104" s="1"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-      <c r="E105" s="2"/>
-      <c r="L105" s="1"/>
-      <c r="O105" s="2"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>1943</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>372623992944</v>
+      </c>
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" t="s">
+        <v>78</v>
+      </c>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>345763541005</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" t="s">
+        <v>61</v>
+      </c>
+      <c r="L100" s="1"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>172381155209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.46260000000000001</v>
+      </c>
+      <c r="F101" t="s">
+        <v>53</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>50</v>
+      </c>
+      <c r="I101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>92898025741</v>
+      </c>
+      <c r="C102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102">
+        <v>0.25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>56</v>
+      </c>
+      <c r="G102" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103">
+        <v>3.72</v>
+      </c>
+      <c r="D103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" t="s">
+        <v>60</v>
+      </c>
+      <c r="H103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>21863521791</v>
+      </c>
+      <c r="C104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104">
+        <v>122.52</v>
+      </c>
+      <c r="F104" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>1810496</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" t="s">
+        <v>62</v>
+      </c>
+      <c r="I105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
-      <c r="E106" s="2"/>
       <c r="L106" s="1"/>
-      <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>8.03164224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" t="s">
+        <v>69</v>
+      </c>
       <c r="L107" s="1"/>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="E108" s="2"/>
+      <c r="L108" s="1"/>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
       <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="9">
+        <v>25384.658254999998</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="9">
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
       <c r="L110" s="1"/>
-      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9">
+        <v>339019</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9">
+        <v>4185</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" s="9">
+        <v>0</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="9">
+        <v>48264</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="L113" s="1"/>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="9"/>
+      <c r="C114" s="9">
+        <v>51596297458</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="9">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="9"/>
+      <c r="C115" s="9">
+        <v>41208560806</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="9">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="9"/>
+      <c r="C116" s="9">
+        <v>23585139443</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="9">
+        <v>0.45710000000000001</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="9"/>
+      <c r="C117" s="9">
+        <v>22569975915</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+      <c r="C118" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="9">
+        <v>1.83</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9">
+        <v>5540951079</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="9">
+        <v>218.28</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
+      <c r="C120" s="9">
+        <v>41717033</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="9">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
+      <c r="C122" s="9">
+        <v>8.0181555790000001</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="9">
+        <v>76214.932335999998</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="9">
+        <v>9.5060000000000002</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>7416</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="9">
+        <v>0</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B127" s="9">
+        <v>499</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>1595</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>179014436863</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="9">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>164051841900</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>61790438994</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>52125142644</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="9">
+        <v>3.15</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>12227125714</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="9">
+        <v>160.43</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>1716702</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="9">
+        <v>8.0179031129999991</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>101</v>
+      </c>
+      <c r="B141" s="9">
+        <v>78341.227551000004</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="9">
+        <v>9.7650000000000006</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="9">
+        <v>7718</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="9">
+        <v>510</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="9">
+        <v>0</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="9">
+        <v>1442</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" s="9">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="9">
+        <v>184098071355</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="9">
+        <v>168708622042</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="9">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="9">
+        <v>61417277020</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="9">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="9">
+        <v>53945209351</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="9">
+        <v>12673260605</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" s="9">
+        <v>161.77000000000001</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="9">
+        <v>1545302</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="9">
+        <v>8.0230281619999992</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>107</v>
+      </c>
+      <c r="C158">
+        <v>8607.3321629999991</v>
+      </c>
+      <c r="D158" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158">
+        <v>1.071</v>
+      </c>
+      <c r="G158" t="s">
+        <v>39</v>
+      </c>
+      <c r="H158" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C159" s="1">
+        <v>101351</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C160" s="1">
+        <v>5157</v>
+      </c>
+      <c r="D160" t="s">
+        <v>43</v>
+      </c>
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160">
+        <v>1E-3</v>
+      </c>
+      <c r="G160" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C161" s="1">
+        <v>1442</v>
+      </c>
+      <c r="D161" t="s">
+        <v>44</v>
+      </c>
+      <c r="E161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C162" s="1">
+        <v>15264402687</v>
+      </c>
+      <c r="D162" t="s">
+        <v>45</v>
+      </c>
+      <c r="E162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="G162" t="s">
+        <v>46</v>
+      </c>
+      <c r="H162" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C163" s="1">
+        <v>12546698927</v>
+      </c>
+      <c r="D163" t="s">
+        <v>48</v>
+      </c>
+      <c r="E163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G163" t="s">
+        <v>49</v>
+      </c>
+      <c r="H163" t="s">
+        <v>45</v>
+      </c>
+      <c r="I163" t="s">
+        <v>50</v>
+      </c>
+      <c r="J163" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C164" s="1">
+        <v>4192898280</v>
+      </c>
+      <c r="D164" t="s">
+        <v>52</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0.2747</v>
+      </c>
+      <c r="G164" t="s">
+        <v>53</v>
+      </c>
+      <c r="H164" t="s">
+        <v>45</v>
+      </c>
+      <c r="I164" t="s">
+        <v>50</v>
+      </c>
+      <c r="J164" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C165" s="1">
+        <v>8389562368</v>
+      </c>
+      <c r="D165" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G165" t="s">
+        <v>56</v>
+      </c>
+      <c r="H165" t="s">
+        <v>57</v>
+      </c>
+      <c r="I165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166">
+        <v>1.5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>59</v>
+      </c>
+      <c r="F166" t="s">
+        <v>45</v>
+      </c>
+      <c r="G166" t="s">
+        <v>57</v>
+      </c>
+      <c r="H166" t="s">
+        <v>60</v>
+      </c>
+      <c r="I166" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C167" s="1">
+        <v>2080320298</v>
+      </c>
+      <c r="D167" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167">
+        <v>241.69200000000001</v>
+      </c>
+      <c r="G167" t="s">
+        <v>42</v>
+      </c>
+      <c r="H167" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C168" s="1">
+        <v>4474187</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G168" t="s">
+        <v>65</v>
+      </c>
+      <c r="H168" t="s">
+        <v>66</v>
+      </c>
+      <c r="I168" t="s">
+        <v>62</v>
+      </c>
+      <c r="J168" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>8.0370843480000005</v>
+      </c>
+      <c r="D170" t="s">
+        <v>67</v>
+      </c>
+      <c r="E170" t="s">
+        <v>68</v>
+      </c>
+      <c r="F170" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173">
+        <v>8819.1951910000007</v>
+      </c>
+      <c r="D173" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="G173" t="s">
+        <v>39</v>
+      </c>
+      <c r="H173" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C174" s="1">
+        <v>70942</v>
+      </c>
+      <c r="D174" t="s">
+        <v>41</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C175" s="1">
+        <v>2640</v>
+      </c>
+      <c r="D175" t="s">
+        <v>43</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C176" s="1">
+        <v>1446</v>
+      </c>
+      <c r="D176" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C177" s="1">
+        <v>18503400772</v>
+      </c>
+      <c r="D177" t="s">
+        <v>45</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="G177" t="s">
+        <v>46</v>
+      </c>
+      <c r="H177" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C178" s="1">
+        <v>15996468624</v>
+      </c>
+      <c r="D178" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" s="2">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="G178" t="s">
+        <v>49</v>
+      </c>
+      <c r="H178" t="s">
+        <v>45</v>
+      </c>
+      <c r="I178" t="s">
+        <v>50</v>
+      </c>
+      <c r="J178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C179" s="1">
+        <v>6919377289</v>
+      </c>
+      <c r="D179" t="s">
+        <v>52</v>
+      </c>
+      <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="G179" t="s">
+        <v>53</v>
+      </c>
+      <c r="H179" t="s">
+        <v>45</v>
+      </c>
+      <c r="I179" t="s">
+        <v>50</v>
+      </c>
+      <c r="J179" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C180" s="1">
+        <v>8191428414</v>
+      </c>
+      <c r="D180" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180">
+        <v>0.44</v>
+      </c>
+      <c r="G180" t="s">
+        <v>56</v>
+      </c>
+      <c r="H180" t="s">
+        <v>57</v>
+      </c>
+      <c r="I180" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181">
+        <v>1.95</v>
+      </c>
+      <c r="E181" t="s">
+        <v>59</v>
+      </c>
+      <c r="F181" t="s">
+        <v>45</v>
+      </c>
+      <c r="G181" t="s">
+        <v>57</v>
+      </c>
+      <c r="H181" t="s">
+        <v>60</v>
+      </c>
+      <c r="I181" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C182" s="1">
+        <v>2009159294</v>
+      </c>
+      <c r="D182" t="s">
+        <v>62</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182">
+        <v>227.81700000000001</v>
+      </c>
+      <c r="G182" t="s">
+        <v>42</v>
+      </c>
+      <c r="H182" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C183" s="1">
+        <v>4181771</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" t="s">
+        <v>38</v>
+      </c>
+      <c r="F183" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G183" t="s">
+        <v>65</v>
+      </c>
+      <c r="H183" t="s">
+        <v>66</v>
+      </c>
+      <c r="I183" t="s">
+        <v>62</v>
+      </c>
+      <c r="J183" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>8.0599636320000005</v>
+      </c>
+      <c r="D185" t="s">
+        <v>67</v>
+      </c>
+      <c r="E185" t="s">
+        <v>68</v>
+      </c>
+      <c r="F185" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>119</v>
+      </c>
+      <c r="C187">
+        <v>8131.645896</v>
+      </c>
+      <c r="D187" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>39</v>
+      </c>
+      <c r="H187" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>877</v>
+      </c>
+      <c r="D188" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>426</v>
+      </c>
+      <c r="D189" t="s">
+        <v>43</v>
+      </c>
+      <c r="E189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C190" s="1">
+        <v>1455</v>
+      </c>
+      <c r="D190" t="s">
+        <v>44</v>
+      </c>
+      <c r="E190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C191" s="1">
+        <v>14554626935</v>
+      </c>
+      <c r="D191" t="s">
+        <v>45</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191">
+        <v>1.79</v>
+      </c>
+      <c r="G191" t="s">
+        <v>46</v>
+      </c>
+      <c r="H191" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C192" s="1">
+        <v>12697642037</v>
+      </c>
+      <c r="D192" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" s="2">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="G192" t="s">
+        <v>49</v>
+      </c>
+      <c r="H192" t="s">
+        <v>45</v>
+      </c>
+      <c r="I192" t="s">
+        <v>50</v>
+      </c>
+      <c r="J192" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C193" s="1">
+        <v>7412817387</v>
+      </c>
+      <c r="D193" t="s">
+        <v>52</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0.50929999999999997</v>
+      </c>
+      <c r="G193" t="s">
+        <v>53</v>
+      </c>
+      <c r="H193" t="s">
+        <v>45</v>
+      </c>
+      <c r="I193" t="s">
+        <v>50</v>
+      </c>
+      <c r="J193" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C194" s="1">
+        <v>6557232351</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194">
+        <v>0.45</v>
+      </c>
+      <c r="G194" t="s">
+        <v>56</v>
+      </c>
+      <c r="H194" t="s">
+        <v>57</v>
+      </c>
+      <c r="I194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>38</v>
+      </c>
+      <c r="D195">
+        <v>1.94</v>
+      </c>
+      <c r="E195" t="s">
+        <v>59</v>
+      </c>
+      <c r="F195" t="s">
+        <v>45</v>
+      </c>
+      <c r="G195" t="s">
+        <v>57</v>
+      </c>
+      <c r="H195" t="s">
+        <v>60</v>
+      </c>
+      <c r="I195" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C196" s="1">
+        <v>1457985684</v>
+      </c>
+      <c r="D196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E196" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196">
+        <v>179.298</v>
+      </c>
+      <c r="G196" t="s">
+        <v>42</v>
+      </c>
+      <c r="H196" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C197" s="1">
+        <v>377299</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G197" t="s">
+        <v>65</v>
+      </c>
+      <c r="H197" t="s">
+        <v>66</v>
+      </c>
+      <c r="I197" t="s">
+        <v>62</v>
+      </c>
+      <c r="J197" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>87.029249824999994</v>
+      </c>
+      <c r="D199" t="s">
+        <v>67</v>
+      </c>
+      <c r="E199" t="s">
+        <v>68</v>
+      </c>
+      <c r="F199" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>126</v>
+      </c>
+      <c r="C201">
+        <v>8216.084793</v>
+      </c>
+      <c r="D201" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G201" t="s">
+        <v>39</v>
+      </c>
+      <c r="H201" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C202" s="1">
+        <v>1762</v>
+      </c>
+      <c r="D202" t="s">
+        <v>41</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>550</v>
+      </c>
+      <c r="D203" t="s">
+        <v>43</v>
+      </c>
+      <c r="E203" t="s">
+        <v>38</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C204" s="1">
+        <v>1428</v>
+      </c>
+      <c r="D204" t="s">
+        <v>44</v>
+      </c>
+      <c r="E204" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C205" s="1">
+        <v>14260850747</v>
+      </c>
+      <c r="D205" t="s">
+        <v>45</v>
+      </c>
+      <c r="E205" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205">
+        <v>1.736</v>
+      </c>
+      <c r="G205" t="s">
+        <v>46</v>
+      </c>
+      <c r="H205" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C206" s="1">
+        <v>12224549274</v>
+      </c>
+      <c r="D206" t="s">
+        <v>48</v>
+      </c>
+      <c r="E206" t="s">
+        <v>38</v>
+      </c>
+      <c r="F206" s="2">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="G206" t="s">
+        <v>49</v>
+      </c>
+      <c r="H206" t="s">
+        <v>45</v>
+      </c>
+      <c r="I206" t="s">
+        <v>50</v>
+      </c>
+      <c r="J206" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C207" s="1">
+        <v>5624276345</v>
+      </c>
+      <c r="D207" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" t="s">
+        <v>38</v>
+      </c>
+      <c r="F207" s="2">
+        <v>0.39439999999999997</v>
+      </c>
+      <c r="G207" t="s">
+        <v>53</v>
+      </c>
+      <c r="H207" t="s">
+        <v>45</v>
+      </c>
+      <c r="I207" t="s">
+        <v>50</v>
+      </c>
+      <c r="J207" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C208" s="1">
+        <v>7120267706</v>
+      </c>
+      <c r="D208" t="s">
+        <v>55</v>
+      </c>
+      <c r="E208" t="s">
+        <v>38</v>
+      </c>
+      <c r="F208">
+        <v>0.5</v>
+      </c>
+      <c r="G208" t="s">
+        <v>56</v>
+      </c>
+      <c r="H208" t="s">
+        <v>57</v>
+      </c>
+      <c r="I208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>38</v>
+      </c>
+      <c r="D209">
+        <v>1.72</v>
+      </c>
+      <c r="E209" t="s">
+        <v>59</v>
+      </c>
+      <c r="F209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G209" t="s">
+        <v>57</v>
+      </c>
+      <c r="H209" t="s">
+        <v>60</v>
+      </c>
+      <c r="I209" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C210" s="1">
+        <v>1657772262</v>
+      </c>
+      <c r="D210" t="s">
+        <v>62</v>
+      </c>
+      <c r="E210" t="s">
+        <v>38</v>
+      </c>
+      <c r="F210">
+        <v>201.77199999999999</v>
+      </c>
+      <c r="G210" t="s">
+        <v>42</v>
+      </c>
+      <c r="H210" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C211" s="1">
+        <v>736220</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" t="s">
+        <v>38</v>
+      </c>
+      <c r="F211" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G211" t="s">
+        <v>65</v>
+      </c>
+      <c r="H211" t="s">
+        <v>66</v>
+      </c>
+      <c r="I211" t="s">
+        <v>62</v>
+      </c>
+      <c r="J211" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>197.045882113</v>
+      </c>
+      <c r="D213" t="s">
+        <v>67</v>
+      </c>
+      <c r="E213" t="s">
+        <v>68</v>
+      </c>
+      <c r="F213" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>129</v>
+      </c>
+      <c r="C215">
+        <v>78510.370309000005</v>
+      </c>
+      <c r="D215" t="s">
+        <v>37</v>
+      </c>
+      <c r="E215" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215">
+        <v>9.75</v>
+      </c>
+      <c r="G215" t="s">
+        <v>39</v>
+      </c>
+      <c r="H215" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C216" s="1">
+        <v>7938</v>
+      </c>
+      <c r="D216" t="s">
+        <v>41</v>
+      </c>
+      <c r="E216" t="s">
+        <v>38</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>504</v>
+      </c>
+      <c r="D217" t="s">
+        <v>43</v>
+      </c>
+      <c r="E217" t="s">
+        <v>38</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C218" s="1">
+        <v>1335</v>
+      </c>
+      <c r="D218" t="s">
+        <v>44</v>
+      </c>
+      <c r="E218" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C219" s="1">
+        <v>185675305504</v>
+      </c>
+      <c r="D219" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="G219" t="s">
+        <v>46</v>
+      </c>
+      <c r="H219" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C220" s="1">
+        <v>87332766265</v>
+      </c>
+      <c r="D220" t="s">
+        <v>48</v>
+      </c>
+      <c r="E220" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220" s="2">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="G220" t="s">
+        <v>49</v>
+      </c>
+      <c r="H220" t="s">
+        <v>45</v>
+      </c>
+      <c r="I220" t="s">
+        <v>50</v>
+      </c>
+      <c r="J220" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C221" s="1">
+        <v>8303757870</v>
+      </c>
+      <c r="D221" t="s">
+        <v>52</v>
+      </c>
+      <c r="E221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" s="2">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="G221" t="s">
+        <v>53</v>
+      </c>
+      <c r="H221" t="s">
+        <v>45</v>
+      </c>
+      <c r="I221" t="s">
+        <v>50</v>
+      </c>
+      <c r="J221" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C222" s="1">
+        <v>223164745964</v>
+      </c>
+      <c r="D222" t="s">
+        <v>55</v>
+      </c>
+      <c r="E222" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222">
+        <v>1.2</v>
+      </c>
+      <c r="G222" t="s">
+        <v>56</v>
+      </c>
+      <c r="H222" t="s">
+        <v>57</v>
+      </c>
+      <c r="I222" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>38</v>
+      </c>
+      <c r="D223">
+        <v>0.39</v>
+      </c>
+      <c r="E223" t="s">
+        <v>59</v>
+      </c>
+      <c r="F223" t="s">
+        <v>45</v>
+      </c>
+      <c r="G223" t="s">
+        <v>57</v>
+      </c>
+      <c r="H223" t="s">
+        <v>60</v>
+      </c>
+      <c r="I223" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C224" s="1">
+        <v>44901079682</v>
+      </c>
+      <c r="D224" t="s">
+        <v>62</v>
+      </c>
+      <c r="E224" t="s">
+        <v>38</v>
+      </c>
+      <c r="F224">
+        <v>571.91300000000001</v>
+      </c>
+      <c r="G224" t="s">
+        <v>42</v>
+      </c>
+      <c r="H224" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C225" s="1">
+        <v>1772319</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" t="s">
+        <v>38</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>65</v>
+      </c>
+      <c r="H225" t="s">
+        <v>66</v>
+      </c>
+      <c r="I225" t="s">
+        <v>62</v>
+      </c>
+      <c r="J225" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>8.0526060919999995</v>
+      </c>
+      <c r="D227" t="s">
+        <v>67</v>
+      </c>
+      <c r="E227" t="s">
+        <v>68</v>
+      </c>
+      <c r="F227" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>134</v>
+      </c>
+      <c r="C230">
+        <v>191799.11966500001</v>
+      </c>
+      <c r="D230" t="s">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>38</v>
+      </c>
+      <c r="F230">
+        <v>23.832999999999998</v>
+      </c>
+      <c r="G230" t="s">
+        <v>39</v>
+      </c>
+      <c r="H230" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C231" s="1">
+        <v>4298</v>
+      </c>
+      <c r="D231" t="s">
+        <v>41</v>
+      </c>
+      <c r="E231" t="s">
+        <v>38</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>317</v>
+      </c>
+      <c r="D232" t="s">
+        <v>43</v>
+      </c>
+      <c r="E232" t="s">
+        <v>38</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C233" s="1">
+        <v>1334</v>
+      </c>
+      <c r="D233" t="s">
+        <v>44</v>
+      </c>
+      <c r="E233" t="s">
+        <v>38</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C234" s="1">
+        <v>388362025339</v>
+      </c>
+      <c r="D234" t="s">
+        <v>45</v>
+      </c>
+      <c r="E234" t="s">
+        <v>38</v>
+      </c>
+      <c r="F234">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="G234" t="s">
+        <v>46</v>
+      </c>
+      <c r="H234" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C235" s="1">
+        <v>160233953777</v>
+      </c>
+      <c r="D235" t="s">
+        <v>48</v>
+      </c>
+      <c r="E235" t="s">
+        <v>38</v>
+      </c>
+      <c r="F235" s="2">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="G235" t="s">
+        <v>49</v>
+      </c>
+      <c r="H235" t="s">
+        <v>45</v>
+      </c>
+      <c r="I235" t="s">
+        <v>50</v>
+      </c>
+      <c r="J235" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C236" s="1">
+        <v>30203417153</v>
+      </c>
+      <c r="D236" t="s">
+        <v>52</v>
+      </c>
+      <c r="E236" t="s">
+        <v>38</v>
+      </c>
+      <c r="F236" s="2">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="G236" t="s">
+        <v>53</v>
+      </c>
+      <c r="H236" t="s">
+        <v>45</v>
+      </c>
+      <c r="I236" t="s">
+        <v>50</v>
+      </c>
+      <c r="J236" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C237" s="1">
+        <v>489090933060</v>
+      </c>
+      <c r="D237" t="s">
+        <v>55</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237">
+        <v>1.26</v>
+      </c>
+      <c r="G237" t="s">
+        <v>56</v>
+      </c>
+      <c r="H237" t="s">
+        <v>57</v>
+      </c>
+      <c r="I237" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>38</v>
+      </c>
+      <c r="D238">
+        <v>0.33</v>
+      </c>
+      <c r="E238" t="s">
+        <v>59</v>
+      </c>
+      <c r="F238" t="s">
+        <v>45</v>
+      </c>
+      <c r="G238" t="s">
+        <v>57</v>
+      </c>
+      <c r="H238" t="s">
+        <v>60</v>
+      </c>
+      <c r="I238" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C239" s="1">
+        <v>98050819437</v>
+      </c>
+      <c r="D239" t="s">
+        <v>62</v>
+      </c>
+      <c r="E239" t="s">
+        <v>38</v>
+      </c>
+      <c r="F239">
+        <v>511.21600000000001</v>
+      </c>
+      <c r="G239" t="s">
+        <v>42</v>
+      </c>
+      <c r="H239" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C240" s="1">
+        <v>1731254</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240" s="2">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>65</v>
+      </c>
+      <c r="H240" t="s">
+        <v>66</v>
+      </c>
+      <c r="I240" t="s">
+        <v>62</v>
+      </c>
+      <c r="J240" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>8.0477192479999999</v>
+      </c>
+      <c r="D242" t="s">
+        <v>67</v>
+      </c>
+      <c r="E242" t="s">
+        <v>68</v>
+      </c>
+      <c r="F242" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>135</v>
+      </c>
+      <c r="C245">
+        <v>14120.212749</v>
+      </c>
+      <c r="D245" t="s">
+        <v>37</v>
+      </c>
+      <c r="E245" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G245" t="s">
+        <v>39</v>
+      </c>
+      <c r="H245" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C246" s="1">
+        <v>647</v>
+      </c>
+      <c r="D246" t="s">
+        <v>41</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C247" s="1">
+        <v>367</v>
+      </c>
+      <c r="D247" t="s">
+        <v>43</v>
+      </c>
+      <c r="E247" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C248" s="1">
+        <v>1832</v>
+      </c>
+      <c r="D248" t="s">
+        <v>44</v>
+      </c>
+      <c r="E248" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C249" s="1">
+        <v>25135046749</v>
+      </c>
+      <c r="D249" t="s">
+        <v>45</v>
+      </c>
+      <c r="E249" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249">
+        <v>1.78</v>
+      </c>
+      <c r="G249" t="s">
+        <v>46</v>
+      </c>
+      <c r="H249" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C250" s="1">
+        <v>21330971175</v>
+      </c>
+      <c r="D250" t="s">
+        <v>48</v>
+      </c>
+      <c r="E250" t="s">
+        <v>38</v>
+      </c>
+      <c r="F250" s="2">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="G250" t="s">
+        <v>49</v>
+      </c>
+      <c r="H250" t="s">
+        <v>45</v>
+      </c>
+      <c r="I250" t="s">
+        <v>50</v>
+      </c>
+      <c r="J250" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C251" s="1">
+        <v>8572203819</v>
+      </c>
+      <c r="D251" t="s">
+        <v>52</v>
+      </c>
+      <c r="E251" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="G251" t="s">
+        <v>53</v>
+      </c>
+      <c r="H251" t="s">
+        <v>45</v>
+      </c>
+      <c r="I251" t="s">
+        <v>50</v>
+      </c>
+      <c r="J251" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C252" s="1">
+        <v>12943503331</v>
+      </c>
+      <c r="D252" t="s">
+        <v>55</v>
+      </c>
+      <c r="E252" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252">
+        <v>0.51</v>
+      </c>
+      <c r="G252" t="s">
+        <v>56</v>
+      </c>
+      <c r="H252" t="s">
+        <v>57</v>
+      </c>
+      <c r="I252" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>38</v>
+      </c>
+      <c r="D253">
+        <v>1.65</v>
+      </c>
+      <c r="E253" t="s">
+        <v>59</v>
+      </c>
+      <c r="F253" t="s">
+        <v>45</v>
+      </c>
+      <c r="G253" t="s">
+        <v>57</v>
+      </c>
+      <c r="H253" t="s">
+        <v>60</v>
+      </c>
+      <c r="I253" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C254" s="1">
+        <v>3006240088</v>
+      </c>
+      <c r="D254" t="s">
+        <v>62</v>
+      </c>
+      <c r="E254" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254">
+        <v>212.90299999999999</v>
+      </c>
+      <c r="G254" t="s">
+        <v>42</v>
+      </c>
+      <c r="H254" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C255" s="1">
+        <v>1021449</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G255" t="s">
+        <v>65</v>
+      </c>
+      <c r="H255" t="s">
+        <v>66</v>
+      </c>
+      <c r="I255" t="s">
+        <v>62</v>
+      </c>
+      <c r="J255" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>40.953304750999997</v>
+      </c>
+      <c r="D257" t="s">
+        <v>67</v>
+      </c>
+      <c r="E257" t="s">
+        <v>68</v>
+      </c>
+      <c r="F257" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>138</v>
+      </c>
+      <c r="C260">
+        <v>13369.129799</v>
+      </c>
+      <c r="D260" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" t="s">
+        <v>38</v>
+      </c>
+      <c r="F260">
+        <v>0.374</v>
+      </c>
+      <c r="G260" t="s">
+        <v>39</v>
+      </c>
+      <c r="H260" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C261" s="1">
+        <v>645</v>
+      </c>
+      <c r="D261" t="s">
+        <v>41</v>
+      </c>
+      <c r="E261" t="s">
+        <v>38</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>298</v>
+      </c>
+      <c r="D262" t="s">
+        <v>43</v>
+      </c>
+      <c r="E262" t="s">
+        <v>38</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C263" s="1">
+        <v>1474</v>
+      </c>
+      <c r="D263" t="s">
+        <v>44</v>
+      </c>
+      <c r="E263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C264" s="1">
+        <v>17713662405</v>
+      </c>
+      <c r="D264" t="s">
+        <v>45</v>
+      </c>
+      <c r="E264" t="s">
+        <v>38</v>
+      </c>
+      <c r="F264">
+        <v>1.325</v>
+      </c>
+      <c r="G264" t="s">
+        <v>46</v>
+      </c>
+      <c r="H264" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C265" s="1">
+        <v>14408221815</v>
+      </c>
+      <c r="D265" t="s">
+        <v>48</v>
+      </c>
+      <c r="E265" t="s">
+        <v>38</v>
+      </c>
+      <c r="F265" s="2">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="G265" t="s">
+        <v>49</v>
+      </c>
+      <c r="H265" t="s">
+        <v>45</v>
+      </c>
+      <c r="I265" t="s">
+        <v>50</v>
+      </c>
+      <c r="J265" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C266" s="1">
+        <v>6188169229</v>
+      </c>
+      <c r="D266" t="s">
+        <v>52</v>
+      </c>
+      <c r="E266" t="s">
+        <v>38</v>
+      </c>
+      <c r="F266" s="2">
+        <v>0.3493</v>
+      </c>
+      <c r="G266" t="s">
+        <v>53</v>
+      </c>
+      <c r="H266" t="s">
+        <v>45</v>
+      </c>
+      <c r="I266" t="s">
+        <v>50</v>
+      </c>
+      <c r="J266" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C267" s="1">
+        <v>10455081785</v>
+      </c>
+      <c r="D267" t="s">
+        <v>55</v>
+      </c>
+      <c r="E267" t="s">
+        <v>38</v>
+      </c>
+      <c r="F267">
+        <v>0.59</v>
+      </c>
+      <c r="G267" t="s">
+        <v>56</v>
+      </c>
+      <c r="H267" t="s">
+        <v>57</v>
+      </c>
+      <c r="I267" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>38</v>
+      </c>
+      <c r="D268">
+        <v>1.38</v>
+      </c>
+      <c r="E268" t="s">
+        <v>59</v>
+      </c>
+      <c r="F268" t="s">
+        <v>45</v>
+      </c>
+      <c r="G268" t="s">
+        <v>57</v>
+      </c>
+      <c r="H268" t="s">
+        <v>60</v>
+      </c>
+      <c r="I268" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C269" s="1">
+        <v>2394537083</v>
+      </c>
+      <c r="D269" t="s">
+        <v>62</v>
+      </c>
+      <c r="E269" t="s">
+        <v>38</v>
+      </c>
+      <c r="F269">
+        <v>179.10900000000001</v>
+      </c>
+      <c r="G269" t="s">
+        <v>42</v>
+      </c>
+      <c r="H269" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C270" s="1">
+        <v>689613</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" t="s">
+        <v>38</v>
+      </c>
+      <c r="F270" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G270" t="s">
+        <v>65</v>
+      </c>
+      <c r="H270" t="s">
+        <v>66</v>
+      </c>
+      <c r="I270" t="s">
+        <v>62</v>
+      </c>
+      <c r="J270" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>35.734135879999997</v>
+      </c>
+      <c r="D272" t="s">
+        <v>67</v>
+      </c>
+      <c r="E272" t="s">
+        <v>68</v>
+      </c>
+      <c r="F272" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>151</v>
+      </c>
+      <c r="C274">
+        <v>65468.712067</v>
+      </c>
+      <c r="D274" t="s">
+        <v>37</v>
+      </c>
+      <c r="E274" t="s">
+        <v>38</v>
+      </c>
+      <c r="F274">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="G274" t="s">
+        <v>39</v>
+      </c>
+      <c r="H274" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C275" s="1">
+        <v>5509</v>
+      </c>
+      <c r="D275" t="s">
+        <v>41</v>
+      </c>
+      <c r="E275" t="s">
+        <v>38</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C276" s="1">
+        <v>1585</v>
+      </c>
+      <c r="D276" t="s">
+        <v>43</v>
+      </c>
+      <c r="E276" t="s">
+        <v>38</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C277" s="1">
+        <v>5439</v>
+      </c>
+      <c r="D277" t="s">
+        <v>44</v>
+      </c>
+      <c r="E277" t="s">
+        <v>38</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C278" s="1">
+        <v>154721849185</v>
+      </c>
+      <c r="D278" t="s">
+        <v>45</v>
+      </c>
+      <c r="E278" t="s">
+        <v>38</v>
+      </c>
+      <c r="F278">
+        <v>2.363</v>
+      </c>
+      <c r="G278" t="s">
+        <v>46</v>
+      </c>
+      <c r="H278" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C279" s="1">
+        <v>138639232070</v>
+      </c>
+      <c r="D279" t="s">
+        <v>48</v>
+      </c>
+      <c r="E279" t="s">
+        <v>38</v>
+      </c>
+      <c r="F279" s="2">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="G279" t="s">
+        <v>49</v>
+      </c>
+      <c r="H279" t="s">
+        <v>45</v>
+      </c>
+      <c r="I279" t="s">
+        <v>50</v>
+      </c>
+      <c r="J279" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C280" s="1">
+        <v>51096126885</v>
+      </c>
+      <c r="D280" t="s">
+        <v>52</v>
+      </c>
+      <c r="E280" t="s">
+        <v>38</v>
+      </c>
+      <c r="F280" s="2">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="G280" t="s">
+        <v>53</v>
+      </c>
+      <c r="H280" t="s">
+        <v>45</v>
+      </c>
+      <c r="I280" t="s">
+        <v>50</v>
+      </c>
+      <c r="J280" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C281" s="1">
+        <v>54674637850</v>
+      </c>
+      <c r="D281" t="s">
+        <v>55</v>
+      </c>
+      <c r="E281" t="s">
+        <v>38</v>
+      </c>
+      <c r="F281">
+        <v>0.35</v>
+      </c>
+      <c r="G281" t="s">
+        <v>56</v>
+      </c>
+      <c r="H281" t="s">
+        <v>57</v>
+      </c>
+      <c r="I281" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>38</v>
+      </c>
+      <c r="D282">
+        <v>2.54</v>
+      </c>
+      <c r="E282" t="s">
+        <v>59</v>
+      </c>
+      <c r="F282" t="s">
+        <v>45</v>
+      </c>
+      <c r="G282" t="s">
+        <v>57</v>
+      </c>
+      <c r="H282" t="s">
+        <v>60</v>
+      </c>
+      <c r="I282" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C283" s="1">
+        <v>12972142897</v>
+      </c>
+      <c r="D283" t="s">
+        <v>62</v>
+      </c>
+      <c r="E283" t="s">
+        <v>38</v>
+      </c>
+      <c r="F283">
+        <v>198.143</v>
+      </c>
+      <c r="G283" t="s">
+        <v>42</v>
+      </c>
+      <c r="H283" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C284" s="1">
+        <v>3778880</v>
+      </c>
+      <c r="D284" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" t="s">
+        <v>38</v>
+      </c>
+      <c r="F284" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G284" t="s">
+        <v>65</v>
+      </c>
+      <c r="H284" t="s">
+        <v>66</v>
+      </c>
+      <c r="I284" t="s">
+        <v>62</v>
+      </c>
+      <c r="J284" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>8.0083653459999997</v>
+      </c>
+      <c r="D286" t="s">
+        <v>67</v>
+      </c>
+      <c r="E286" t="s">
+        <v>68</v>
+      </c>
+      <c r="F286" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>155</v>
+      </c>
+      <c r="C289">
+        <v>141178.304389</v>
+      </c>
+      <c r="D289" t="s">
+        <v>37</v>
+      </c>
+      <c r="E289" t="s">
+        <v>38</v>
+      </c>
+      <c r="F289">
+        <v>17.611000000000001</v>
+      </c>
+      <c r="G289" t="s">
+        <v>39</v>
+      </c>
+      <c r="H289" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C290" s="1">
+        <v>40278</v>
+      </c>
+      <c r="D290" t="s">
+        <v>41</v>
+      </c>
+      <c r="E290" t="s">
+        <v>38</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>726</v>
+      </c>
+      <c r="D291" t="s">
+        <v>43</v>
+      </c>
+      <c r="E291" t="s">
+        <v>38</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C292" s="1">
+        <v>9069</v>
+      </c>
+      <c r="D292" t="s">
+        <v>44</v>
+      </c>
+      <c r="E292" t="s">
+        <v>38</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C293" s="1">
+        <v>288820147920</v>
+      </c>
+      <c r="D293" t="s">
+        <v>45</v>
+      </c>
+      <c r="E293" t="s">
+        <v>38</v>
+      </c>
+      <c r="F293">
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="G293" t="s">
+        <v>46</v>
+      </c>
+      <c r="H293" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C294" s="1">
+        <v>257933562992</v>
+      </c>
+      <c r="D294" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294" t="s">
+        <v>38</v>
+      </c>
+      <c r="F294" s="2">
+        <v>0.8931</v>
+      </c>
+      <c r="G294" t="s">
+        <v>49</v>
+      </c>
+      <c r="H294" t="s">
+        <v>45</v>
+      </c>
+      <c r="I294" t="s">
+        <v>50</v>
+      </c>
+      <c r="J294" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C295" s="1">
+        <v>119395921690</v>
+      </c>
+      <c r="D295" t="s">
+        <v>52</v>
+      </c>
+      <c r="E295" t="s">
+        <v>38</v>
+      </c>
+      <c r="F295" s="2">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="G295" t="s">
+        <v>53</v>
+      </c>
+      <c r="H295" t="s">
+        <v>45</v>
+      </c>
+      <c r="I295" t="s">
+        <v>50</v>
+      </c>
+      <c r="J295" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C296" s="1">
+        <v>102666298896</v>
+      </c>
+      <c r="D296" t="s">
+        <v>55</v>
+      </c>
+      <c r="E296" t="s">
+        <v>38</v>
+      </c>
+      <c r="F296">
+        <v>0.36</v>
+      </c>
+      <c r="G296" t="s">
+        <v>56</v>
+      </c>
+      <c r="H296" t="s">
+        <v>57</v>
+      </c>
+      <c r="I296" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>38</v>
+      </c>
+      <c r="D297">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E297" t="s">
+        <v>59</v>
+      </c>
+      <c r="F297" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" t="s">
+        <v>57</v>
+      </c>
+      <c r="H297" t="s">
+        <v>60</v>
+      </c>
+      <c r="I297" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C298" s="1">
+        <v>24838143394</v>
+      </c>
+      <c r="D298" t="s">
+        <v>62</v>
+      </c>
+      <c r="E298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298">
+        <v>175.935</v>
+      </c>
+      <c r="G298" t="s">
+        <v>42</v>
+      </c>
+      <c r="H298" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C299" s="1">
+        <v>7471003</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" t="s">
+        <v>38</v>
+      </c>
+      <c r="F299" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G299" t="s">
+        <v>65</v>
+      </c>
+      <c r="H299" t="s">
+        <v>66</v>
+      </c>
+      <c r="I299" t="s">
+        <v>62</v>
+      </c>
+      <c r="J299" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>8.0164341120000007</v>
+      </c>
+      <c r="D301" t="s">
+        <v>67</v>
+      </c>
+      <c r="E301" t="s">
+        <v>68</v>
+      </c>
+      <c r="F301" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>158</v>
+      </c>
+      <c r="C304">
+        <v>191343.897624</v>
+      </c>
+      <c r="D304" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304" t="s">
+        <v>38</v>
+      </c>
+      <c r="F304">
+        <v>23.721</v>
+      </c>
+      <c r="G304" t="s">
+        <v>39</v>
+      </c>
+      <c r="H304" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C305" s="1">
+        <v>4104</v>
+      </c>
+      <c r="D305" t="s">
+        <v>41</v>
+      </c>
+      <c r="E305" t="s">
+        <v>38</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <v>367</v>
+      </c>
+      <c r="D306" t="s">
+        <v>43</v>
+      </c>
+      <c r="E306" t="s">
+        <v>38</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C307" s="1">
+        <v>1206</v>
+      </c>
+      <c r="D307" t="s">
+        <v>44</v>
+      </c>
+      <c r="E307" t="s">
+        <v>38</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C308" s="1">
+        <v>401494758607</v>
+      </c>
+      <c r="D308" t="s">
+        <v>45</v>
+      </c>
+      <c r="E308" t="s">
+        <v>38</v>
+      </c>
+      <c r="F308">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="G308" t="s">
+        <v>46</v>
+      </c>
+      <c r="H308" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C309" s="1">
+        <v>397646527162</v>
+      </c>
+      <c r="D309" t="s">
+        <v>48</v>
+      </c>
+      <c r="E309" t="s">
+        <v>38</v>
+      </c>
+      <c r="F309" s="2">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="G309" t="s">
+        <v>49</v>
+      </c>
+      <c r="H309" t="s">
+        <v>45</v>
+      </c>
+      <c r="I309" t="s">
+        <v>50</v>
+      </c>
+      <c r="J309" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C310" s="1">
+        <v>328579603686</v>
+      </c>
+      <c r="D310" t="s">
+        <v>52</v>
+      </c>
+      <c r="E310" t="s">
+        <v>38</v>
+      </c>
+      <c r="F310" s="2">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="G310" t="s">
+        <v>53</v>
+      </c>
+      <c r="H310" t="s">
+        <v>45</v>
+      </c>
+      <c r="I310" t="s">
+        <v>50</v>
+      </c>
+      <c r="J310" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C311" s="1">
+        <v>12648873709</v>
+      </c>
+      <c r="D311" t="s">
+        <v>55</v>
+      </c>
+      <c r="E311" t="s">
+        <v>38</v>
+      </c>
+      <c r="F311">
+        <v>0.03</v>
+      </c>
+      <c r="G311" t="s">
+        <v>56</v>
+      </c>
+      <c r="H311" t="s">
+        <v>57</v>
+      </c>
+      <c r="I311" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>38</v>
+      </c>
+      <c r="D312">
+        <v>31.44</v>
+      </c>
+      <c r="E312" t="s">
+        <v>59</v>
+      </c>
+      <c r="F312" t="s">
+        <v>45</v>
+      </c>
+      <c r="G312" t="s">
+        <v>57</v>
+      </c>
+      <c r="H312" t="s">
+        <v>60</v>
+      </c>
+      <c r="I312" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C313" s="1">
+        <v>2392479370</v>
+      </c>
+      <c r="D313" t="s">
+        <v>62</v>
+      </c>
+      <c r="E313" t="s">
+        <v>38</v>
+      </c>
+      <c r="F313">
+        <v>12.504</v>
+      </c>
+      <c r="G313" t="s">
+        <v>42</v>
+      </c>
+      <c r="H313" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C314" s="1">
+        <v>1343725</v>
+      </c>
+      <c r="D314" t="s">
+        <v>64</v>
+      </c>
+      <c r="E314" t="s">
+        <v>38</v>
+      </c>
+      <c r="F314" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G314" t="s">
+        <v>65</v>
+      </c>
+      <c r="H314" t="s">
+        <v>66</v>
+      </c>
+      <c r="I314" t="s">
+        <v>62</v>
+      </c>
+      <c r="J314" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <v>8.0663686810000002</v>
+      </c>
+      <c r="D316" t="s">
+        <v>67</v>
+      </c>
+      <c r="E316" t="s">
+        <v>68</v>
+      </c>
+      <c r="F316" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>160</v>
+      </c>
+      <c r="C319">
+        <v>76622.719131000005</v>
+      </c>
+      <c r="D319" t="s">
+        <v>37</v>
+      </c>
+      <c r="E319" t="s">
+        <v>38</v>
+      </c>
+      <c r="F319">
+        <v>9.5030000000000001</v>
+      </c>
+      <c r="G319" t="s">
+        <v>39</v>
+      </c>
+      <c r="H319" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C320" s="1">
+        <v>7960</v>
+      </c>
+      <c r="D320" t="s">
+        <v>41</v>
+      </c>
+      <c r="E320" t="s">
+        <v>38</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <v>636</v>
+      </c>
+      <c r="D321" t="s">
+        <v>43</v>
+      </c>
+      <c r="E321" t="s">
+        <v>38</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C322" s="1">
+        <v>1329</v>
+      </c>
+      <c r="D322" t="s">
+        <v>44</v>
+      </c>
+      <c r="E322" t="s">
+        <v>38</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C323" s="1">
+        <v>181834378538</v>
+      </c>
+      <c r="D323" t="s">
+        <v>45</v>
+      </c>
+      <c r="E323" t="s">
+        <v>38</v>
+      </c>
+      <c r="F323">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="G323" t="s">
+        <v>46</v>
+      </c>
+      <c r="H323" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C324" s="1">
+        <v>178050897341</v>
+      </c>
+      <c r="D324" t="s">
+        <v>48</v>
+      </c>
+      <c r="E324" t="s">
+        <v>38</v>
+      </c>
+      <c r="F324" s="2">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="G324" t="s">
+        <v>49</v>
+      </c>
+      <c r="H324" t="s">
+        <v>45</v>
+      </c>
+      <c r="I324" t="s">
+        <v>50</v>
+      </c>
+      <c r="J324" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C325" s="1">
+        <v>146129012469</v>
+      </c>
+      <c r="D325" t="s">
+        <v>52</v>
+      </c>
+      <c r="E325" t="s">
+        <v>38</v>
+      </c>
+      <c r="F325" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="G325" t="s">
+        <v>53</v>
+      </c>
+      <c r="H325" t="s">
+        <v>45</v>
+      </c>
+      <c r="I325" t="s">
+        <v>50</v>
+      </c>
+      <c r="J325" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C326" s="1">
+        <v>12512958882</v>
+      </c>
+      <c r="D326" t="s">
+        <v>55</v>
+      </c>
+      <c r="E326" t="s">
+        <v>38</v>
+      </c>
+      <c r="F326">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G326" t="s">
+        <v>56</v>
+      </c>
+      <c r="H326" t="s">
+        <v>57</v>
+      </c>
+      <c r="I326" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>38</v>
+      </c>
+      <c r="D327">
+        <v>14.23</v>
+      </c>
+      <c r="E327" t="s">
+        <v>59</v>
+      </c>
+      <c r="F327" t="s">
+        <v>45</v>
+      </c>
+      <c r="G327" t="s">
+        <v>57</v>
+      </c>
+      <c r="H327" t="s">
+        <v>60</v>
+      </c>
+      <c r="I327" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C328" s="1">
+        <v>2514023750</v>
+      </c>
+      <c r="D328" t="s">
+        <v>62</v>
+      </c>
+      <c r="E328" t="s">
+        <v>38</v>
+      </c>
+      <c r="F328">
+        <v>32.81</v>
+      </c>
+      <c r="G328" t="s">
+        <v>42</v>
+      </c>
+      <c r="H328" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C329" s="1">
+        <v>1758074</v>
+      </c>
+      <c r="D329" t="s">
+        <v>64</v>
+      </c>
+      <c r="E329" t="s">
+        <v>38</v>
+      </c>
+      <c r="F329" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G329" t="s">
+        <v>65</v>
+      </c>
+      <c r="H329" t="s">
+        <v>66</v>
+      </c>
+      <c r="I329" t="s">
+        <v>62</v>
+      </c>
+      <c r="J329" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>8.0629721120000006</v>
+      </c>
+      <c r="D331" t="s">
+        <v>67</v>
+      </c>
+      <c r="E331" t="s">
+        <v>68</v>
+      </c>
+      <c r="F331" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>163</v>
+      </c>
+      <c r="C333">
+        <v>8065.7969270000003</v>
+      </c>
+      <c r="D333" t="s">
+        <v>37</v>
+      </c>
+      <c r="E333" t="s">
+        <v>38</v>
+      </c>
+      <c r="F333">
+        <v>0.152</v>
+      </c>
+      <c r="G333" t="s">
+        <v>39</v>
+      </c>
+      <c r="H333" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <v>515</v>
+      </c>
+      <c r="D334" t="s">
+        <v>41</v>
+      </c>
+      <c r="E334" t="s">
+        <v>38</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <v>359</v>
+      </c>
+      <c r="D335" t="s">
+        <v>43</v>
+      </c>
+      <c r="E335" t="s">
+        <v>38</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C336" s="1">
+        <v>1219</v>
+      </c>
+      <c r="D336" t="s">
+        <v>44</v>
+      </c>
+      <c r="E336" t="s">
+        <v>38</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C337" s="1">
+        <v>12888218117</v>
+      </c>
+      <c r="D337" t="s">
+        <v>45</v>
+      </c>
+      <c r="E337" t="s">
+        <v>38</v>
+      </c>
+      <c r="F337">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="G337" t="s">
+        <v>46</v>
+      </c>
+      <c r="H337" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C338" s="1">
+        <v>10581469046</v>
+      </c>
+      <c r="D338" t="s">
+        <v>48</v>
+      </c>
+      <c r="E338" t="s">
+        <v>38</v>
+      </c>
+      <c r="F338" s="2">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G338" t="s">
+        <v>49</v>
+      </c>
+      <c r="H338" t="s">
+        <v>45</v>
+      </c>
+      <c r="I338" t="s">
+        <v>50</v>
+      </c>
+      <c r="J338" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C339" s="1">
+        <v>4983311007</v>
+      </c>
+      <c r="D339" t="s">
+        <v>52</v>
+      </c>
+      <c r="E339" t="s">
+        <v>38</v>
+      </c>
+      <c r="F339" s="2">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="G339" t="s">
+        <v>53</v>
+      </c>
+      <c r="H339" t="s">
+        <v>45</v>
+      </c>
+      <c r="I339" t="s">
+        <v>50</v>
+      </c>
+      <c r="J339" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C340" s="1">
+        <v>7110565036</v>
+      </c>
+      <c r="D340" t="s">
+        <v>55</v>
+      </c>
+      <c r="E340" t="s">
+        <v>38</v>
+      </c>
+      <c r="F340">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G340" t="s">
+        <v>56</v>
+      </c>
+      <c r="H340" t="s">
+        <v>57</v>
+      </c>
+      <c r="I340" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>38</v>
+      </c>
+      <c r="D341">
+        <v>1.49</v>
+      </c>
+      <c r="E341" t="s">
+        <v>59</v>
+      </c>
+      <c r="F341" t="s">
+        <v>45</v>
+      </c>
+      <c r="G341" t="s">
+        <v>57</v>
+      </c>
+      <c r="H341" t="s">
+        <v>60</v>
+      </c>
+      <c r="I341" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C342" s="1">
+        <v>1605698895</v>
+      </c>
+      <c r="D342" t="s">
+        <v>62</v>
+      </c>
+      <c r="E342" t="s">
+        <v>38</v>
+      </c>
+      <c r="F342">
+        <v>199.07499999999999</v>
+      </c>
+      <c r="G342" t="s">
+        <v>42</v>
+      </c>
+      <c r="H342" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C343" s="1">
+        <v>417830</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" t="s">
+        <v>38</v>
+      </c>
+      <c r="F343" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G343" t="s">
+        <v>65</v>
+      </c>
+      <c r="H343" t="s">
+        <v>66</v>
+      </c>
+      <c r="I343" t="s">
+        <v>62</v>
+      </c>
+      <c r="J343" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <v>53.030926702999999</v>
+      </c>
+      <c r="D345" t="s">
+        <v>67</v>
+      </c>
+      <c r="E345" t="s">
+        <v>68</v>
+      </c>
+      <c r="F345" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>168</v>
+      </c>
+      <c r="C347">
+        <v>8164.7510609999999</v>
+      </c>
+      <c r="D347" t="s">
+        <v>37</v>
+      </c>
+      <c r="E347" t="s">
+        <v>38</v>
+      </c>
+      <c r="F347">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G347" t="s">
+        <v>39</v>
+      </c>
+      <c r="H347" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C348" s="1">
+        <v>1612</v>
+      </c>
+      <c r="D348" t="s">
+        <v>41</v>
+      </c>
+      <c r="E348" t="s">
+        <v>38</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>438</v>
+      </c>
+      <c r="D349" t="s">
+        <v>43</v>
+      </c>
+      <c r="E349" t="s">
+        <v>38</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C350" s="1">
+        <v>1521</v>
+      </c>
+      <c r="D350" t="s">
+        <v>44</v>
+      </c>
+      <c r="E350" t="s">
+        <v>38</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C351" s="1">
+        <v>14852680109</v>
+      </c>
+      <c r="D351" t="s">
+        <v>45</v>
+      </c>
+      <c r="E351" t="s">
+        <v>38</v>
+      </c>
+      <c r="F351">
+        <v>1.819</v>
+      </c>
+      <c r="G351" t="s">
+        <v>46</v>
+      </c>
+      <c r="H351" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C352" s="1">
+        <v>12547519292</v>
+      </c>
+      <c r="D352" t="s">
+        <v>48</v>
+      </c>
+      <c r="E352" t="s">
+        <v>38</v>
+      </c>
+      <c r="F352" s="2">
+        <v>0.8448</v>
+      </c>
+      <c r="G352" t="s">
+        <v>49</v>
+      </c>
+      <c r="H352" t="s">
+        <v>45</v>
+      </c>
+      <c r="I352" t="s">
+        <v>50</v>
+      </c>
+      <c r="J352" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C353" s="1">
+        <v>5761474109</v>
+      </c>
+      <c r="D353" t="s">
+        <v>52</v>
+      </c>
+      <c r="E353" t="s">
+        <v>38</v>
+      </c>
+      <c r="F353" s="2">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="G353" t="s">
+        <v>53</v>
+      </c>
+      <c r="H353" t="s">
+        <v>45</v>
+      </c>
+      <c r="I353" t="s">
+        <v>50</v>
+      </c>
+      <c r="J353" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C354" s="1">
+        <v>8082790697</v>
+      </c>
+      <c r="D354" t="s">
+        <v>55</v>
+      </c>
+      <c r="E354" t="s">
+        <v>38</v>
+      </c>
+      <c r="F354">
+        <v>0.54</v>
+      </c>
+      <c r="G354" t="s">
+        <v>56</v>
+      </c>
+      <c r="H354" t="s">
+        <v>57</v>
+      </c>
+      <c r="I354" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>38</v>
+      </c>
+      <c r="D355">
+        <v>1.55</v>
+      </c>
+      <c r="E355" t="s">
+        <v>59</v>
+      </c>
+      <c r="F355" t="s">
+        <v>45</v>
+      </c>
+      <c r="G355" t="s">
+        <v>57</v>
+      </c>
+      <c r="H355" t="s">
+        <v>60</v>
+      </c>
+      <c r="I355" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C356" s="1">
+        <v>1889787171</v>
+      </c>
+      <c r="D356" t="s">
+        <v>62</v>
+      </c>
+      <c r="E356" t="s">
+        <v>38</v>
+      </c>
+      <c r="F356">
+        <v>231.45699999999999</v>
+      </c>
+      <c r="G356" t="s">
+        <v>42</v>
+      </c>
+      <c r="H356" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C357" s="1">
+        <v>605063</v>
+      </c>
+      <c r="D357" t="s">
+        <v>64</v>
+      </c>
+      <c r="E357" t="s">
+        <v>38</v>
+      </c>
+      <c r="F357" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G357" t="s">
+        <v>65</v>
+      </c>
+      <c r="H357" t="s">
+        <v>66</v>
+      </c>
+      <c r="I357" t="s">
+        <v>62</v>
+      </c>
+      <c r="J357" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>155.036342518</v>
+      </c>
+      <c r="D359" t="s">
+        <v>67</v>
+      </c>
+      <c r="E359" t="s">
+        <v>68</v>
+      </c>
+      <c r="F359" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>174</v>
+      </c>
+      <c r="C362">
+        <v>1129.856646</v>
+      </c>
+      <c r="D362" t="s">
+        <v>37</v>
+      </c>
+      <c r="E362" t="s">
+        <v>38</v>
+      </c>
+      <c r="F362">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G362" t="s">
+        <v>39</v>
+      </c>
+      <c r="H362" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <v>626</v>
+      </c>
+      <c r="D363" t="s">
+        <v>41</v>
+      </c>
+      <c r="E363" t="s">
+        <v>38</v>
+      </c>
+      <c r="F363">
+        <v>1E-3</v>
+      </c>
+      <c r="G363" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <v>256</v>
+      </c>
+      <c r="D364" t="s">
+        <v>43</v>
+      </c>
+      <c r="E364" t="s">
+        <v>38</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <v>965</v>
+      </c>
+      <c r="D365" t="s">
+        <v>44</v>
+      </c>
+      <c r="E365" t="s">
+        <v>38</v>
+      </c>
+      <c r="F365">
+        <v>1E-3</v>
+      </c>
+      <c r="G365" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C366" s="1">
+        <v>1727563814</v>
+      </c>
+      <c r="D366" t="s">
+        <v>45</v>
+      </c>
+      <c r="E366" t="s">
+        <v>38</v>
+      </c>
+      <c r="F366">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="G366" t="s">
+        <v>46</v>
+      </c>
+      <c r="H366" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C367" s="1">
+        <v>1433918581</v>
+      </c>
+      <c r="D367" t="s">
+        <v>48</v>
+      </c>
+      <c r="E367" t="s">
+        <v>38</v>
+      </c>
+      <c r="F367" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G367" t="s">
+        <v>49</v>
+      </c>
+      <c r="H367" t="s">
+        <v>45</v>
+      </c>
+      <c r="I367" t="s">
+        <v>50</v>
+      </c>
+      <c r="J367" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C368" s="1">
+        <v>639985011</v>
+      </c>
+      <c r="D368" t="s">
+        <v>52</v>
+      </c>
+      <c r="E368" t="s">
+        <v>38</v>
+      </c>
+      <c r="F368" s="2">
+        <v>0.3705</v>
+      </c>
+      <c r="G368" t="s">
+        <v>53</v>
+      </c>
+      <c r="H368" t="s">
+        <v>45</v>
+      </c>
+      <c r="I368" t="s">
+        <v>50</v>
+      </c>
+      <c r="J368" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C369" s="1">
+        <v>1043776015</v>
+      </c>
+      <c r="D369" t="s">
+        <v>55</v>
+      </c>
+      <c r="E369" t="s">
+        <v>38</v>
+      </c>
+      <c r="F369">
+        <v>0.6</v>
+      </c>
+      <c r="G369" t="s">
+        <v>56</v>
+      </c>
+      <c r="H369" t="s">
+        <v>57</v>
+      </c>
+      <c r="I369" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>38</v>
+      </c>
+      <c r="D370">
+        <v>1.37</v>
+      </c>
+      <c r="E370" t="s">
+        <v>59</v>
+      </c>
+      <c r="F370" t="s">
+        <v>45</v>
+      </c>
+      <c r="G370" t="s">
+        <v>57</v>
+      </c>
+      <c r="H370" t="s">
+        <v>60</v>
+      </c>
+      <c r="I370" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C371" s="1">
+        <v>234284773</v>
+      </c>
+      <c r="D371" t="s">
+        <v>62</v>
+      </c>
+      <c r="E371" t="s">
+        <v>38</v>
+      </c>
+      <c r="F371">
+        <v>207.358</v>
+      </c>
+      <c r="G371" t="s">
+        <v>42</v>
+      </c>
+      <c r="H371" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C372" s="1">
+        <v>283500</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" t="s">
+        <v>38</v>
+      </c>
+      <c r="F372" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G372" t="s">
+        <v>65</v>
+      </c>
+      <c r="H372" t="s">
+        <v>66</v>
+      </c>
+      <c r="I372" t="s">
+        <v>62</v>
+      </c>
+      <c r="J372" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C374">
+        <v>253.031494616</v>
+      </c>
+      <c r="D374" t="s">
+        <v>67</v>
+      </c>
+      <c r="E374" t="s">
+        <v>68</v>
+      </c>
+      <c r="F374" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>181</v>
+      </c>
+      <c r="C377">
+        <v>1149.375168</v>
+      </c>
+      <c r="D377" t="s">
+        <v>37</v>
+      </c>
+      <c r="E377" t="s">
+        <v>38</v>
+      </c>
+      <c r="F377">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G377" t="s">
+        <v>39</v>
+      </c>
+      <c r="H377" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C378">
+        <v>648</v>
+      </c>
+      <c r="D378" t="s">
+        <v>41</v>
+      </c>
+      <c r="E378" t="s">
+        <v>38</v>
+      </c>
+      <c r="F378">
+        <v>1E-3</v>
+      </c>
+      <c r="G378" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C379">
+        <v>266</v>
+      </c>
+      <c r="D379" t="s">
+        <v>43</v>
+      </c>
+      <c r="E379" t="s">
+        <v>38</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C380">
+        <v>976</v>
+      </c>
+      <c r="D380" t="s">
+        <v>44</v>
+      </c>
+      <c r="E380" t="s">
+        <v>38</v>
+      </c>
+      <c r="F380">
+        <v>1E-3</v>
+      </c>
+      <c r="G380" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C381" s="1">
+        <v>1798121031</v>
+      </c>
+      <c r="D381" t="s">
+        <v>45</v>
+      </c>
+      <c r="E381" t="s">
+        <v>38</v>
+      </c>
+      <c r="F381">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="G381" t="s">
+        <v>46</v>
+      </c>
+      <c r="H381" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C382" s="1">
+        <v>1440942969</v>
+      </c>
+      <c r="D382" t="s">
+        <v>48</v>
+      </c>
+      <c r="E382" t="s">
+        <v>38</v>
+      </c>
+      <c r="F382" s="2">
+        <v>0.8014</v>
+      </c>
+      <c r="G382" t="s">
+        <v>49</v>
+      </c>
+      <c r="H382" t="s">
+        <v>45</v>
+      </c>
+      <c r="I382" t="s">
+        <v>50</v>
+      </c>
+      <c r="J382" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C383" s="1">
+        <v>636491496</v>
+      </c>
+      <c r="D383" t="s">
+        <v>52</v>
+      </c>
+      <c r="E383" t="s">
+        <v>38</v>
+      </c>
+      <c r="F383" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G383" t="s">
+        <v>53</v>
+      </c>
+      <c r="H383" t="s">
+        <v>45</v>
+      </c>
+      <c r="I383" t="s">
+        <v>50</v>
+      </c>
+      <c r="J383" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C384" s="1">
+        <v>1123409418</v>
+      </c>
+      <c r="D384" t="s">
+        <v>55</v>
+      </c>
+      <c r="E384" t="s">
+        <v>38</v>
+      </c>
+      <c r="F384">
+        <v>0.62</v>
+      </c>
+      <c r="G384" t="s">
+        <v>56</v>
+      </c>
+      <c r="H384" t="s">
+        <v>57</v>
+      </c>
+      <c r="I384" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="385" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>38</v>
+      </c>
+      <c r="D385">
+        <v>1.28</v>
+      </c>
+      <c r="E385" t="s">
+        <v>59</v>
+      </c>
+      <c r="F385" t="s">
+        <v>45</v>
+      </c>
+      <c r="G385" t="s">
+        <v>57</v>
+      </c>
+      <c r="H385" t="s">
+        <v>60</v>
+      </c>
+      <c r="I385" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="386" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C386" s="1">
+        <v>250961220</v>
+      </c>
+      <c r="D386" t="s">
+        <v>62</v>
+      </c>
+      <c r="E386" t="s">
+        <v>38</v>
+      </c>
+      <c r="F386">
+        <v>218.346</v>
+      </c>
+      <c r="G386" t="s">
+        <v>42</v>
+      </c>
+      <c r="H386" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="387" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C387" s="1">
+        <v>343642</v>
+      </c>
+      <c r="D387" t="s">
+        <v>64</v>
+      </c>
+      <c r="E387" t="s">
+        <v>38</v>
+      </c>
+      <c r="F387" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G387" t="s">
+        <v>65</v>
+      </c>
+      <c r="H387" t="s">
+        <v>66</v>
+      </c>
+      <c r="I387" t="s">
+        <v>62</v>
+      </c>
+      <c r="J387" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="389" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C389">
+        <v>254.020016734</v>
+      </c>
+      <c r="D389" t="s">
+        <v>67</v>
+      </c>
+      <c r="E389" t="s">
+        <v>68</v>
+      </c>
+      <c r="F389" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Data Structures/linked_list/Linked_List_Test_Data.xlsx
+++ b/Data Structures/linked_list/Linked_List_Test_Data.xlsx
@@ -1710,11 +1710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71083136"/>
-        <c:axId val="71085056"/>
+        <c:axId val="41002496"/>
+        <c:axId val="41004416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71083136"/>
+        <c:axId val="41002496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71085056"/>
+        <c:crossAx val="41004416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,7 +1751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71085056"/>
+        <c:axId val="41004416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71083136"/>
+        <c:crossAx val="41002496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2012,11 +2012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80904960"/>
-        <c:axId val="80906880"/>
+        <c:axId val="41888768"/>
+        <c:axId val="41895040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80904960"/>
+        <c:axId val="41888768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80906880"/>
+        <c:crossAx val="41895040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2053,7 +2053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80906880"/>
+        <c:axId val="41895040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80904960"/>
+        <c:crossAx val="41888768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,7 +2148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2314,11 +2313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80954112"/>
-        <c:axId val="80956032"/>
+        <c:axId val="41921536"/>
+        <c:axId val="41931904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80954112"/>
+        <c:axId val="41921536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,14 +2339,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80956032"/>
+        <c:crossAx val="41931904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +2353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80956032"/>
+        <c:axId val="41931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,21 +2376,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80954112"/>
+        <c:crossAx val="41921536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2468,6 +2464,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$12:$I$12</c:f>
@@ -2517,6 +2546,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$13:$I$13</c:f>
@@ -2566,6 +2628,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$20:$I$20</c:f>
@@ -2615,6 +2710,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$24:$I$24</c:f>
@@ -2664,6 +2792,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$25:$I$25</c:f>
@@ -2713,6 +2874,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$32:$I$32</c:f>
@@ -2762,6 +2956,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$36:$I$36</c:f>
@@ -2811,6 +3038,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$37:$I$37</c:f>
@@ -2860,6 +3120,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$44:$I$44</c:f>
@@ -2905,11 +3198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80997376"/>
-        <c:axId val="81011840"/>
+        <c:axId val="41984000"/>
+        <c:axId val="41985920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80997376"/>
+        <c:axId val="41984000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +3231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81011840"/>
+        <c:crossAx val="41985920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2946,7 +3239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81011840"/>
+        <c:axId val="41985920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +3269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80997376"/>
+        <c:crossAx val="41984000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3346,11 +3639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81039360"/>
-        <c:axId val="81041280"/>
+        <c:axId val="42047744"/>
+        <c:axId val="42049920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81039360"/>
+        <c:axId val="42047744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81041280"/>
+        <c:crossAx val="42049920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3387,7 +3680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81041280"/>
+        <c:axId val="42049920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,7 +3710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81039360"/>
+        <c:crossAx val="42047744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3787,11 +4080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82813696"/>
-        <c:axId val="82815616"/>
+        <c:axId val="42160896"/>
+        <c:axId val="42162816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82813696"/>
+        <c:axId val="42160896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +4113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82815616"/>
+        <c:crossAx val="42162816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3828,7 +4121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82815616"/>
+        <c:axId val="42162816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,7 +4151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82813696"/>
+        <c:crossAx val="42160896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4228,11 +4521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82707968"/>
-        <c:axId val="82709888"/>
+        <c:axId val="42200064"/>
+        <c:axId val="42210432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82707968"/>
+        <c:axId val="42200064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4261,7 +4554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82709888"/>
+        <c:crossAx val="42210432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4269,7 +4562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82709888"/>
+        <c:axId val="42210432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,7 +4592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82707968"/>
+        <c:crossAx val="42200064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4616,11 +4909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82748928"/>
-        <c:axId val="82750848"/>
+        <c:axId val="42232832"/>
+        <c:axId val="42239104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82748928"/>
+        <c:axId val="42232832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4649,7 +4942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82750848"/>
+        <c:crossAx val="42239104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4657,7 +4950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82750848"/>
+        <c:axId val="42239104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,7 +4980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82748928"/>
+        <c:crossAx val="42232832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5004,11 +5297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83117568"/>
-        <c:axId val="83119488"/>
+        <c:axId val="42343424"/>
+        <c:axId val="42345600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83117568"/>
+        <c:axId val="42343424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5037,7 +5330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83119488"/>
+        <c:crossAx val="42345600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5045,7 +5338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83119488"/>
+        <c:axId val="42345600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5075,7 +5368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83117568"/>
+        <c:crossAx val="42343424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5392,11 +5685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82515456"/>
-        <c:axId val="82517376"/>
+        <c:axId val="42396672"/>
+        <c:axId val="42398848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82515456"/>
+        <c:axId val="42396672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5425,7 +5718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82517376"/>
+        <c:crossAx val="42398848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5433,7 +5726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82517376"/>
+        <c:axId val="42398848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5463,7 +5756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82515456"/>
+        <c:crossAx val="42396672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6272,11 +6565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82573568"/>
-        <c:axId val="82575744"/>
+        <c:axId val="42536960"/>
+        <c:axId val="42538880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82573568"/>
+        <c:axId val="42536960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6305,7 +6598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82575744"/>
+        <c:crossAx val="42538880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6313,7 +6606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82575744"/>
+        <c:axId val="42538880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6343,7 +6636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82573568"/>
+        <c:crossAx val="42536960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7398,11 +7691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71140480"/>
-        <c:axId val="71142400"/>
+        <c:axId val="41472768"/>
+        <c:axId val="41474688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71140480"/>
+        <c:axId val="41472768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7431,7 +7724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71142400"/>
+        <c:crossAx val="41474688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7439,7 +7732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71142400"/>
+        <c:axId val="41474688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7469,7 +7762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71140480"/>
+        <c:crossAx val="41472768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8449,11 +8742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82630144"/>
-        <c:axId val="82632064"/>
+        <c:axId val="42589184"/>
+        <c:axId val="42669184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82630144"/>
+        <c:axId val="42589184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8482,7 +8775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82632064"/>
+        <c:crossAx val="42669184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8490,7 +8783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82632064"/>
+        <c:axId val="42669184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8520,7 +8813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82630144"/>
+        <c:crossAx val="42589184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9508,11 +9801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92880896"/>
-        <c:axId val="92882816"/>
+        <c:axId val="42739200"/>
+        <c:axId val="42741120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92880896"/>
+        <c:axId val="42739200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9541,7 +9834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92882816"/>
+        <c:crossAx val="42741120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9549,7 +9842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92882816"/>
+        <c:axId val="42741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9579,7 +9872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92880896"/>
+        <c:crossAx val="42739200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10559,11 +10852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92944640"/>
-        <c:axId val="92950912"/>
+        <c:axId val="42803200"/>
+        <c:axId val="42805120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92944640"/>
+        <c:axId val="42803200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10585,13 +10878,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92950912"/>
+        <c:crossAx val="42805120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10599,7 +10893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92950912"/>
+        <c:axId val="42805120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10622,13 +10916,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92944640"/>
+        <c:crossAx val="42803200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10959,11 +11254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118651136"/>
-        <c:axId val="118654848"/>
+        <c:axId val="42844160"/>
+        <c:axId val="42846080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118651136"/>
+        <c:axId val="42844160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10992,7 +11287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118654848"/>
+        <c:crossAx val="42846080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11000,7 +11295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118654848"/>
+        <c:axId val="42846080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11030,7 +11325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118651136"/>
+        <c:crossAx val="42844160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11352,11 +11647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107534208"/>
-        <c:axId val="107720704"/>
+        <c:axId val="42941824"/>
+        <c:axId val="42944000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107534208"/>
+        <c:axId val="42941824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11385,7 +11680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107720704"/>
+        <c:crossAx val="42944000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11393,7 +11688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107720704"/>
+        <c:axId val="42944000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11423,7 +11718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107534208"/>
+        <c:crossAx val="42941824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11745,11 +12040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107492096"/>
-        <c:axId val="107496960"/>
+        <c:axId val="42999168"/>
+        <c:axId val="43001344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107492096"/>
+        <c:axId val="42999168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11778,7 +12073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107496960"/>
+        <c:crossAx val="43001344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11786,7 +12081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107496960"/>
+        <c:axId val="43001344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11816,7 +12111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107492096"/>
+        <c:crossAx val="42999168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12138,11 +12433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105577856"/>
-        <c:axId val="107021824"/>
+        <c:axId val="43011456"/>
+        <c:axId val="43042304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105577856"/>
+        <c:axId val="43011456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12171,7 +12466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107021824"/>
+        <c:crossAx val="43042304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12179,7 +12474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107021824"/>
+        <c:axId val="43042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12209,7 +12504,649 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105577856"/>
+        <c:crossAx val="43011456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linked List All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Machines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> All TICKET</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>33606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>33633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$45:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="84311424"/>
+        <c:axId val="84327808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84311424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84327808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84327808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84311424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13272,11 +14209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81094144"/>
-        <c:axId val="81096064"/>
+        <c:axId val="41541632"/>
+        <c:axId val="41543552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81094144"/>
+        <c:axId val="41541632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13305,7 +14242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81096064"/>
+        <c:crossAx val="41543552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13313,7 +14250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81096064"/>
+        <c:axId val="41543552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13343,7 +14280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81094144"/>
+        <c:crossAx val="41541632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13578,11 +14515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81114240"/>
-        <c:axId val="81116160"/>
+        <c:axId val="41602048"/>
+        <c:axId val="41608320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81114240"/>
+        <c:axId val="41602048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13611,7 +14548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81116160"/>
+        <c:crossAx val="41608320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13619,7 +14556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81116160"/>
+        <c:axId val="41608320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13649,7 +14586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81114240"/>
+        <c:crossAx val="41602048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13880,11 +14817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81153024"/>
-        <c:axId val="81163392"/>
+        <c:axId val="41618432"/>
+        <c:axId val="41636992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81153024"/>
+        <c:axId val="41618432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13913,7 +14850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81163392"/>
+        <c:crossAx val="41636992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13921,7 +14858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81163392"/>
+        <c:axId val="41636992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13951,7 +14888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81153024"/>
+        <c:crossAx val="41618432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14182,11 +15119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81204736"/>
-        <c:axId val="81206656"/>
+        <c:axId val="41671680"/>
+        <c:axId val="41673856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81204736"/>
+        <c:axId val="41671680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14215,7 +15152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81206656"/>
+        <c:crossAx val="41673856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14223,7 +15160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81206656"/>
+        <c:axId val="41673856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14253,7 +15190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81204736"/>
+        <c:crossAx val="41671680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14484,11 +15421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81257600"/>
-        <c:axId val="81259520"/>
+        <c:axId val="41704448"/>
+        <c:axId val="41710720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81257600"/>
+        <c:axId val="41704448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14517,7 +15454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81259520"/>
+        <c:crossAx val="41710720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14525,7 +15462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81259520"/>
+        <c:axId val="41710720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14555,7 +15492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81257600"/>
+        <c:crossAx val="41704448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14786,11 +15723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82326656"/>
-        <c:axId val="82328576"/>
+        <c:axId val="41741312"/>
+        <c:axId val="41813120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82326656"/>
+        <c:axId val="41741312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14819,7 +15756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82328576"/>
+        <c:crossAx val="41813120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14827,7 +15764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82328576"/>
+        <c:axId val="41813120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14857,7 +15794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82326656"/>
+        <c:crossAx val="41741312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15088,11 +16025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82371328"/>
-        <c:axId val="82373248"/>
+        <c:axId val="41835520"/>
+        <c:axId val="41849984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82371328"/>
+        <c:axId val="41835520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15121,7 +16058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82373248"/>
+        <c:crossAx val="41849984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15129,7 +16066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82373248"/>
+        <c:axId val="41849984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15159,7 +16096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82371328"/>
+        <c:crossAx val="41835520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15535,16 +16472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15568,15 +16505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15606,9 +16543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15632,15 +16569,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16009,6 +16946,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16301,8 +17270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Structures/linked_list/Linked_List_Test_Data.xlsx
+++ b/Data Structures/linked_list/Linked_List_Test_Data.xlsx
@@ -1410,11 +1410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100712832"/>
-        <c:axId val="100714752"/>
+        <c:axId val="100717312"/>
+        <c:axId val="100719232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100712832"/>
+        <c:axId val="100717312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100714752"/>
+        <c:crossAx val="100719232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1451,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100714752"/>
+        <c:axId val="100719232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100712832"/>
+        <c:crossAx val="100717312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1711,11 +1711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102848768"/>
-        <c:axId val="102850944"/>
+        <c:axId val="101792384"/>
+        <c:axId val="101806848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102848768"/>
+        <c:axId val="101792384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102850944"/>
+        <c:crossAx val="101806848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,7 +1751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102850944"/>
+        <c:axId val="101806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102848768"/>
+        <c:crossAx val="101792384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,11 +2009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102885632"/>
-        <c:axId val="102891904"/>
+        <c:axId val="101845632"/>
+        <c:axId val="101847808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102885632"/>
+        <c:axId val="101845632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102891904"/>
+        <c:crossAx val="101847808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2049,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102891904"/>
+        <c:axId val="101847808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102885632"/>
+        <c:crossAx val="101845632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2894,11 +2894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107420672"/>
-        <c:axId val="107422848"/>
+        <c:axId val="101453184"/>
+        <c:axId val="101467648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107420672"/>
+        <c:axId val="101453184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107422848"/>
+        <c:crossAx val="101467648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2935,7 +2935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107422848"/>
+        <c:axId val="101467648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107420672"/>
+        <c:crossAx val="101453184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3335,11 +3335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107460096"/>
-        <c:axId val="107462016"/>
+        <c:axId val="101504896"/>
+        <c:axId val="101515264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107460096"/>
+        <c:axId val="101504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3368,7 +3368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107462016"/>
+        <c:crossAx val="101515264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3376,7 +3376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107462016"/>
+        <c:axId val="101515264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107460096"/>
+        <c:crossAx val="101504896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3775,11 +3775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107499520"/>
-        <c:axId val="107501440"/>
+        <c:axId val="101540224"/>
+        <c:axId val="101542144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107499520"/>
+        <c:axId val="101540224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +3807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107501440"/>
+        <c:crossAx val="101542144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3815,7 +3815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107501440"/>
+        <c:axId val="101542144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +3844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107499520"/>
+        <c:crossAx val="101540224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4212,11 +4212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107620608"/>
-        <c:axId val="107622784"/>
+        <c:axId val="101661312"/>
+        <c:axId val="101663488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107620608"/>
+        <c:axId val="101661312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107622784"/>
+        <c:crossAx val="101663488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4252,7 +4252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107622784"/>
+        <c:axId val="101663488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,7 +4281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107620608"/>
+        <c:crossAx val="101661312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4597,11 +4597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107657472"/>
-        <c:axId val="107663744"/>
+        <c:axId val="101698176"/>
+        <c:axId val="101704448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107657472"/>
+        <c:axId val="101698176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107663744"/>
+        <c:crossAx val="101704448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4638,7 +4638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107663744"/>
+        <c:axId val="101704448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4668,7 +4668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107657472"/>
+        <c:crossAx val="101698176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4985,11 +4985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108030208"/>
-        <c:axId val="108036480"/>
+        <c:axId val="102529664"/>
+        <c:axId val="102535936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108030208"/>
+        <c:axId val="102529664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5018,7 +5018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108036480"/>
+        <c:crossAx val="102535936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5026,7 +5026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108036480"/>
+        <c:axId val="102535936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5056,7 +5056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108030208"/>
+        <c:crossAx val="102529664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5373,11 +5373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108071168"/>
-        <c:axId val="108073344"/>
+        <c:axId val="102566528"/>
+        <c:axId val="102568704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108071168"/>
+        <c:axId val="102566528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +5406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108073344"/>
+        <c:crossAx val="102568704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5414,7 +5414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108073344"/>
+        <c:axId val="102568704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,7 +5444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108071168"/>
+        <c:crossAx val="102566528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6253,11 +6253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107809792"/>
-        <c:axId val="107820160"/>
+        <c:axId val="102628736"/>
+        <c:axId val="102315520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107809792"/>
+        <c:axId val="102628736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6286,7 +6286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107820160"/>
+        <c:crossAx val="102315520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6294,7 +6294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107820160"/>
+        <c:axId val="102315520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6324,7 +6324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107809792"/>
+        <c:crossAx val="102628736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7378,11 +7378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102305152"/>
-        <c:axId val="102311424"/>
+        <c:axId val="100741120"/>
+        <c:axId val="100743040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102305152"/>
+        <c:axId val="100741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7410,7 +7410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102311424"/>
+        <c:crossAx val="100743040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7418,7 +7418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102311424"/>
+        <c:axId val="100743040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7447,7 +7447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102305152"/>
+        <c:crossAx val="100741120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8426,11 +8426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107874560"/>
-        <c:axId val="107884928"/>
+        <c:axId val="102374016"/>
+        <c:axId val="102388480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107874560"/>
+        <c:axId val="102374016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8459,7 +8459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107884928"/>
+        <c:crossAx val="102388480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8467,7 +8467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107884928"/>
+        <c:axId val="102388480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8497,7 +8497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107874560"/>
+        <c:crossAx val="102374016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9485,11 +9485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107959040"/>
-        <c:axId val="107960960"/>
+        <c:axId val="102458496"/>
+        <c:axId val="102460416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107959040"/>
+        <c:axId val="102458496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9518,7 +9518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107960960"/>
+        <c:crossAx val="102460416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9526,7 +9526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107960960"/>
+        <c:axId val="102460416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9556,7 +9556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107959040"/>
+        <c:crossAx val="102458496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10536,11 +10536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108485632"/>
-        <c:axId val="108508288"/>
+        <c:axId val="102718848"/>
+        <c:axId val="102741504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108485632"/>
+        <c:axId val="102718848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10568,7 +10568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108508288"/>
+        <c:crossAx val="102741504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10576,7 +10576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108508288"/>
+        <c:axId val="102741504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10605,7 +10605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108485632"/>
+        <c:crossAx val="102718848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10935,11 +10935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108522496"/>
-        <c:axId val="108663936"/>
+        <c:axId val="108268928"/>
+        <c:axId val="108283392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108522496"/>
+        <c:axId val="108268928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10967,7 +10967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108663936"/>
+        <c:crossAx val="108283392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10975,7 +10975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108663936"/>
+        <c:axId val="108283392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11004,7 +11004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108522496"/>
+        <c:crossAx val="108268928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11324,11 +11324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108698240"/>
-        <c:axId val="108704512"/>
+        <c:axId val="108313600"/>
+        <c:axId val="108315776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108698240"/>
+        <c:axId val="108313600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11356,7 +11356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108704512"/>
+        <c:crossAx val="108315776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11364,7 +11364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108704512"/>
+        <c:axId val="108315776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11393,7 +11393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108698240"/>
+        <c:crossAx val="108313600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11713,11 +11713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108735104"/>
-        <c:axId val="108737280"/>
+        <c:axId val="108739584"/>
+        <c:axId val="108741760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108735104"/>
+        <c:axId val="108739584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11745,7 +11745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108737280"/>
+        <c:crossAx val="108741760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11753,7 +11753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108737280"/>
+        <c:axId val="108741760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11782,7 +11782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108735104"/>
+        <c:crossAx val="108739584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12102,11 +12102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108784256"/>
-        <c:axId val="108790528"/>
+        <c:axId val="108780544"/>
+        <c:axId val="108790912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108784256"/>
+        <c:axId val="108780544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12134,7 +12134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108790528"/>
+        <c:crossAx val="108790912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12142,7 +12142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108790528"/>
+        <c:axId val="108790912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12171,7 +12171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108784256"/>
+        <c:crossAx val="108780544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12740,11 +12740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108823680"/>
-        <c:axId val="108825600"/>
+        <c:axId val="108828160"/>
+        <c:axId val="108830080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108823680"/>
+        <c:axId val="108828160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12772,7 +12772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108825600"/>
+        <c:crossAx val="108830080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12780,7 +12780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108825600"/>
+        <c:axId val="108830080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12809,7 +12809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108823680"/>
+        <c:crossAx val="108828160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13871,11 +13871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102353536"/>
-        <c:axId val="102040320"/>
+        <c:axId val="100785152"/>
+        <c:axId val="101057664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102353536"/>
+        <c:axId val="100785152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13904,7 +13904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102040320"/>
+        <c:crossAx val="101057664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13912,7 +13912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102040320"/>
+        <c:axId val="101057664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13942,7 +13942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102353536"/>
+        <c:crossAx val="100785152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14177,11 +14177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102079104"/>
-        <c:axId val="102081280"/>
+        <c:axId val="101096448"/>
+        <c:axId val="101098624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102079104"/>
+        <c:axId val="101096448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14210,7 +14210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102081280"/>
+        <c:crossAx val="101098624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14218,7 +14218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102081280"/>
+        <c:axId val="101098624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14248,7 +14248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102079104"/>
+        <c:crossAx val="101096448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14479,11 +14479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102120064"/>
-        <c:axId val="102122240"/>
+        <c:axId val="101139200"/>
+        <c:axId val="101141120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102120064"/>
+        <c:axId val="101139200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14512,7 +14512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102122240"/>
+        <c:crossAx val="101141120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14520,7 +14520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102122240"/>
+        <c:axId val="101141120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14550,7 +14550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102120064"/>
+        <c:crossAx val="101139200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14780,11 +14780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102162816"/>
-        <c:axId val="102164736"/>
+        <c:axId val="101184256"/>
+        <c:axId val="101186176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102162816"/>
+        <c:axId val="101184256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14812,7 +14812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102164736"/>
+        <c:crossAx val="101186176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14820,7 +14820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102164736"/>
+        <c:axId val="101186176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14849,7 +14849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102162816"/>
+        <c:crossAx val="101184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15078,11 +15078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102238848"/>
-        <c:axId val="102265600"/>
+        <c:axId val="101221120"/>
+        <c:axId val="101223040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102238848"/>
+        <c:axId val="101221120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15110,7 +15110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102265600"/>
+        <c:crossAx val="101223040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15118,7 +15118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102265600"/>
+        <c:axId val="101223040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15147,7 +15147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102238848"/>
+        <c:crossAx val="101221120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15376,11 +15376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102300288"/>
-        <c:axId val="102769408"/>
+        <c:axId val="101724928"/>
+        <c:axId val="101726848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102300288"/>
+        <c:axId val="101724928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15408,7 +15408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102769408"/>
+        <c:crossAx val="101726848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15416,7 +15416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102769408"/>
+        <c:axId val="101726848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15445,7 +15445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102300288"/>
+        <c:crossAx val="101724928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15674,11 +15674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102816000"/>
-        <c:axId val="102822272"/>
+        <c:axId val="101769600"/>
+        <c:axId val="101771520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102816000"/>
+        <c:axId val="101769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15706,7 +15706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102822272"/>
+        <c:crossAx val="101771520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15714,7 +15714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102822272"/>
+        <c:axId val="101771520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15743,7 +15743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102816000"/>
+        <c:crossAx val="101769600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16916,8 +16916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:I62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18437,56 +18437,120 @@
       <c r="A64" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="B64" s="6">
+        <v>2091932</v>
+      </c>
+      <c r="C64" s="6">
+        <v>439660</v>
+      </c>
+      <c r="D64" s="6">
+        <v>407517</v>
+      </c>
+      <c r="E64" s="6">
+        <v>397355</v>
+      </c>
+      <c r="F64" s="6">
+        <v>397223</v>
+      </c>
+      <c r="G64" s="6">
+        <v>390581</v>
+      </c>
+      <c r="H64" s="6">
+        <v>392731</v>
+      </c>
+      <c r="I64" s="6">
+        <v>402306</v>
+      </c>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="B65" s="6">
+        <v>2611222</v>
+      </c>
+      <c r="C65" s="6">
+        <v>10042555</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2627605</v>
+      </c>
+      <c r="E65" s="6">
+        <v>10047397</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2628898</v>
+      </c>
+      <c r="G65" s="6">
+        <v>9998774</v>
+      </c>
+      <c r="H65" s="6">
+        <v>2630561</v>
+      </c>
+      <c r="I65" s="6">
+        <v>9936023</v>
+      </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="B66" s="6">
+        <v>2563745</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4733937</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2499467</v>
+      </c>
+      <c r="E66" s="6">
+        <v>4520254</v>
+      </c>
+      <c r="F66" s="6">
+        <v>2470715</v>
+      </c>
+      <c r="G66" s="6">
+        <v>4000189</v>
+      </c>
+      <c r="H66" s="6">
+        <v>2425677</v>
+      </c>
+      <c r="I66" s="6">
+        <v>3901245</v>
+      </c>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="B67" s="6">
+        <v>2723313</v>
+      </c>
+      <c r="C67" s="6">
+        <v>213</v>
+      </c>
+      <c r="D67" s="6">
+        <v>171</v>
+      </c>
+      <c r="E67" s="6">
+        <v>203</v>
+      </c>
+      <c r="F67" s="6">
+        <v>224</v>
+      </c>
+      <c r="G67" s="6">
+        <v>305</v>
+      </c>
+      <c r="H67" s="6">
+        <v>236</v>
+      </c>
+      <c r="I67" s="6">
+        <v>515</v>
+      </c>
       <c r="L67" s="1"/>
       <c r="O67" s="2"/>
     </row>
@@ -18494,14 +18558,30 @@
       <c r="A68" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="B68" s="6">
+        <v>2625932</v>
+      </c>
+      <c r="C68" s="6">
+        <v>11144427</v>
+      </c>
+      <c r="D68" s="6">
+        <v>11115644</v>
+      </c>
+      <c r="E68" s="6">
+        <v>11150913</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2644642</v>
+      </c>
+      <c r="G68" s="6">
+        <v>10976689</v>
+      </c>
+      <c r="H68" s="6">
+        <v>2607829</v>
+      </c>
+      <c r="I68" s="6">
+        <v>2545707</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="O68" s="2"/>
     </row>
@@ -18509,68 +18589,148 @@
       <c r="A69" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="B69" s="6">
+        <v>2658169</v>
+      </c>
+      <c r="C69" s="6">
+        <v>3052773</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1978547</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1971015</v>
+      </c>
+      <c r="F69" s="6">
+        <v>2018750</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1995385</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1981253</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1971323</v>
+      </c>
     </row>
     <row r="70" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="B70" s="6">
+        <v>2545516</v>
+      </c>
+      <c r="C70" s="6">
+        <v>3256666</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2425557</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2189963</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2179632</v>
+      </c>
+      <c r="G70" s="6">
+        <v>2181182</v>
+      </c>
+      <c r="H70" s="6">
+        <v>2182589</v>
+      </c>
+      <c r="I70" s="6">
+        <v>2191261</v>
+      </c>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="B71" s="6">
+        <v>2487123</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2480088</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2511598</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2542776</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2561695</v>
+      </c>
+      <c r="G71" s="6">
+        <v>2545746</v>
+      </c>
+      <c r="H71" s="6">
+        <v>10984846</v>
+      </c>
+      <c r="I71" s="6">
+        <v>10919396</v>
+      </c>
     </row>
     <row r="72" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="B72" s="6">
+        <v>2525869</v>
+      </c>
+      <c r="C72" s="6">
+        <v>3131980</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2527780</v>
+      </c>
+      <c r="E72" s="6">
+        <v>2307759</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2206181</v>
+      </c>
+      <c r="G72" s="6">
+        <v>2053257</v>
+      </c>
+      <c r="H72" s="6">
+        <v>2208255</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1689773</v>
+      </c>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="B73" s="6">
+        <v>2480029</v>
+      </c>
+      <c r="C73" s="6">
+        <v>4563816</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2489457</v>
+      </c>
+      <c r="E73" s="6">
+        <v>4550265</v>
+      </c>
+      <c r="F73" s="6">
+        <v>2450785</v>
+      </c>
+      <c r="G73" s="6">
+        <v>3950156</v>
+      </c>
+      <c r="H73" s="6">
+        <v>2394877</v>
+      </c>
+      <c r="I73" s="6">
+        <v>3854758</v>
+      </c>
       <c r="L73" s="1"/>
       <c r="O73" s="2"/>
     </row>
@@ -18578,14 +18738,30 @@
       <c r="A74" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="B74" s="6">
+        <v>2790374</v>
+      </c>
+      <c r="C74" s="6">
+        <v>3137428</v>
+      </c>
+      <c r="D74" s="6">
+        <v>2516283</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2547232</v>
+      </c>
+      <c r="F74" s="6">
+        <v>2470665</v>
+      </c>
+      <c r="G74" s="6">
+        <v>2411727</v>
+      </c>
+      <c r="H74" s="6">
+        <v>2475422</v>
+      </c>
+      <c r="I74" s="6">
+        <v>2359549</v>
+      </c>
       <c r="L74" s="1"/>
       <c r="O74" s="2"/>
     </row>
@@ -18593,14 +18769,30 @@
       <c r="A75" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="B75" s="6">
+        <v>2535148</v>
+      </c>
+      <c r="C75" s="6">
+        <v>3028635</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1959368</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1968955</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1941083</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1929492</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1634992</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1989611</v>
+      </c>
       <c r="L75" s="1"/>
       <c r="O75" s="2"/>
     </row>

--- a/Data Structures/linked_list/Linked_List_Test_Data.xlsx
+++ b/Data Structures/linked_list/Linked_List_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1410,11 +1410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100717312"/>
-        <c:axId val="100719232"/>
+        <c:axId val="129572864"/>
+        <c:axId val="129574784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100717312"/>
+        <c:axId val="129572864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100719232"/>
+        <c:crossAx val="129574784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1451,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100719232"/>
+        <c:axId val="129574784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100717312"/>
+        <c:crossAx val="129572864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1711,11 +1711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101792384"/>
-        <c:axId val="101806848"/>
+        <c:axId val="132233472"/>
+        <c:axId val="132243840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101792384"/>
+        <c:axId val="132233472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101806848"/>
+        <c:crossAx val="132243840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,7 +1751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101806848"/>
+        <c:axId val="132243840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101792384"/>
+        <c:crossAx val="132233472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,11 +2009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101845632"/>
-        <c:axId val="101847808"/>
+        <c:axId val="132274432"/>
+        <c:axId val="132276608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101845632"/>
+        <c:axId val="132274432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101847808"/>
+        <c:crossAx val="132276608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2049,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101847808"/>
+        <c:axId val="132276608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101845632"/>
+        <c:crossAx val="132274432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2894,11 +2894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101453184"/>
-        <c:axId val="101467648"/>
+        <c:axId val="132312064"/>
+        <c:axId val="132322432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101453184"/>
+        <c:axId val="132312064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101467648"/>
+        <c:crossAx val="132322432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2935,7 +2935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101467648"/>
+        <c:axId val="132322432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101453184"/>
+        <c:crossAx val="132312064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3335,11 +3335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101504896"/>
-        <c:axId val="101515264"/>
+        <c:axId val="132367872"/>
+        <c:axId val="132369792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101504896"/>
+        <c:axId val="132367872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3368,7 +3368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101515264"/>
+        <c:crossAx val="132369792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3376,7 +3376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101515264"/>
+        <c:axId val="132369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101504896"/>
+        <c:crossAx val="132367872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3463,6 +3463,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3775,11 +3776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101540224"/>
-        <c:axId val="101542144"/>
+        <c:axId val="132571136"/>
+        <c:axId val="132573056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101540224"/>
+        <c:axId val="132571136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,13 +3802,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101542144"/>
+        <c:crossAx val="132573056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3815,7 +3817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101542144"/>
+        <c:axId val="132573056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,19 +3840,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101540224"/>
+        <c:crossAx val="132571136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3900,6 +3904,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4212,11 +4217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101661312"/>
-        <c:axId val="101663488"/>
+        <c:axId val="132614400"/>
+        <c:axId val="132628864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101661312"/>
+        <c:axId val="132614400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,13 +4243,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101663488"/>
+        <c:crossAx val="132628864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4252,7 +4258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101663488"/>
+        <c:axId val="132628864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,19 +4281,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101661312"/>
+        <c:crossAx val="132614400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4597,11 +4605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101698176"/>
-        <c:axId val="101704448"/>
+        <c:axId val="132651264"/>
+        <c:axId val="132661632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101698176"/>
+        <c:axId val="132651264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101704448"/>
+        <c:crossAx val="132661632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4638,7 +4646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101704448"/>
+        <c:axId val="132661632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4668,7 +4676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101698176"/>
+        <c:crossAx val="132651264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4985,11 +4993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102529664"/>
-        <c:axId val="102535936"/>
+        <c:axId val="132688128"/>
+        <c:axId val="132690304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102529664"/>
+        <c:axId val="132688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5018,7 +5026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102535936"/>
+        <c:crossAx val="132690304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5026,7 +5034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102535936"/>
+        <c:axId val="132690304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5056,7 +5064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102529664"/>
+        <c:crossAx val="132688128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5373,11 +5381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102566528"/>
-        <c:axId val="102568704"/>
+        <c:axId val="132724992"/>
+        <c:axId val="132731264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102566528"/>
+        <c:axId val="132724992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +5414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102568704"/>
+        <c:crossAx val="132731264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5414,7 +5422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102568704"/>
+        <c:axId val="132731264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,7 +5452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102566528"/>
+        <c:crossAx val="132724992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6253,11 +6261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102628736"/>
-        <c:axId val="102315520"/>
+        <c:axId val="132848640"/>
+        <c:axId val="132863104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102628736"/>
+        <c:axId val="132848640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6286,7 +6294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102315520"/>
+        <c:crossAx val="132863104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6294,7 +6302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102315520"/>
+        <c:axId val="132863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6324,7 +6332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102628736"/>
+        <c:crossAx val="132848640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6376,6 +6384,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7378,11 +7387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100741120"/>
-        <c:axId val="100743040"/>
+        <c:axId val="129629184"/>
+        <c:axId val="129774720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100741120"/>
+        <c:axId val="129629184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7404,13 +7413,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100743040"/>
+        <c:crossAx val="129774720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7418,7 +7428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100743040"/>
+        <c:axId val="129774720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7441,19 +7451,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100741120"/>
+        <c:crossAx val="129629184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8426,11 +8438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102374016"/>
-        <c:axId val="102388480"/>
+        <c:axId val="133171456"/>
+        <c:axId val="133194112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102374016"/>
+        <c:axId val="133171456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8459,7 +8471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102388480"/>
+        <c:crossAx val="133194112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8467,7 +8479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102388480"/>
+        <c:axId val="133194112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8497,7 +8509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102374016"/>
+        <c:crossAx val="133171456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9485,11 +9497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102458496"/>
-        <c:axId val="102460416"/>
+        <c:axId val="133255936"/>
+        <c:axId val="133257856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102458496"/>
+        <c:axId val="133255936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9518,7 +9530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102460416"/>
+        <c:crossAx val="133257856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9526,7 +9538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102460416"/>
+        <c:axId val="133257856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9556,7 +9568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102458496"/>
+        <c:crossAx val="133255936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10536,11 +10548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102718848"/>
-        <c:axId val="102741504"/>
+        <c:axId val="133377024"/>
+        <c:axId val="133379200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102718848"/>
+        <c:axId val="133377024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10562,13 +10574,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102741504"/>
+        <c:crossAx val="133379200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10576,7 +10589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102741504"/>
+        <c:axId val="133379200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10599,13 +10612,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102718848"/>
+        <c:crossAx val="133377024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10935,11 +10949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108268928"/>
-        <c:axId val="108283392"/>
+        <c:axId val="133401600"/>
+        <c:axId val="133424256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108268928"/>
+        <c:axId val="133401600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10967,7 +10981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108283392"/>
+        <c:crossAx val="133424256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10975,7 +10989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108283392"/>
+        <c:axId val="133424256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11004,7 +11018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108268928"/>
+        <c:crossAx val="133401600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11324,11 +11338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108313600"/>
-        <c:axId val="108315776"/>
+        <c:axId val="133515904"/>
+        <c:axId val="133522176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108313600"/>
+        <c:axId val="133515904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11356,7 +11370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108315776"/>
+        <c:crossAx val="133522176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11364,7 +11378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108315776"/>
+        <c:axId val="133522176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11393,7 +11407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108313600"/>
+        <c:crossAx val="133515904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11713,11 +11727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108739584"/>
-        <c:axId val="108741760"/>
+        <c:axId val="133560960"/>
+        <c:axId val="138871552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108739584"/>
+        <c:axId val="133560960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11745,7 +11759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108741760"/>
+        <c:crossAx val="138871552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11753,7 +11767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108741760"/>
+        <c:axId val="138871552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11782,7 +11796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108739584"/>
+        <c:crossAx val="133560960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11838,6 +11852,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12102,11 +12117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108780544"/>
-        <c:axId val="108790912"/>
+        <c:axId val="138906240"/>
+        <c:axId val="138920704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108780544"/>
+        <c:axId val="138906240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12128,13 +12143,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108790912"/>
+        <c:crossAx val="138920704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12142,7 +12158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108790912"/>
+        <c:axId val="138920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12165,19 +12181,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108780544"/>
+        <c:crossAx val="138906240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12740,11 +12758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108828160"/>
-        <c:axId val="108830080"/>
+        <c:axId val="138957952"/>
+        <c:axId val="138959872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108828160"/>
+        <c:axId val="138957952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12772,7 +12790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108830080"/>
+        <c:crossAx val="138959872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12780,7 +12798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108830080"/>
+        <c:axId val="138959872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12809,13 +12827,3353 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108828160"/>
+        <c:crossAx val="138957952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linked List Stoker All Locks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1162214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1171421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7821481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>188246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>862727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4176528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>855664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>864276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8446966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>816024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>856486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4196211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>874670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1763104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>868937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>874913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7396333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1230074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>934983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>789985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1003406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1055319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1757773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1055868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1042587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1054636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1044826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1072309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1121480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>449415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1018091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1099590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>582749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>642607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>377377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>578333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>842966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1215243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>842545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1218790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1227912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1224617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1227870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1102641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1113150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>473119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>666180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>648789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>374491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1161583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1762537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1582789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1487562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4558737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>864797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>902848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>870265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$62:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1054750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>496777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>278220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>269992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1036663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>876532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>451607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2091932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>439660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>397355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>397223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>402306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2611222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10042555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2627605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10047397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2628898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9998774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2630561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9936023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$66:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2563745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4733937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2499467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4520254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2470715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2425677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3901245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2723313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2625932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11144427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11115644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11150913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2644642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10976689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2607829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2545707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2658169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3052773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1978547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1971015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1981253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1971323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2545516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3256666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2425557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2189963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2179632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2181182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2182589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2191261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2487123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2480088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2511598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2542776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2561695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2545746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10984846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10919396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$72:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2525869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3131980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2527780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2307759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2206181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2053257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2208255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1689773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2480029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4563816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2489457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4550265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2450785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3950156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2394877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3854758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$74:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2790374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3137428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2516283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2547232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2470665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2411727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2475422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2359549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$75:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2535148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3028635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1959368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1941083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1929492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1634992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$76:$I$76</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1282192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1284830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5952837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6524350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5900903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>758186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>514564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$77:$I$77</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1225940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1719579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1906305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5641610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5661426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1209108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5634840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5603893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$78:$I$78</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1274933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1246471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1598590</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1627625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1625638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1282483</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7154322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7059676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$79:$I$79</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1305850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$80:$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1267777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1941705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1261662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6381372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1237352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6362123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6350616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1240359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$81:$I$81</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1256734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>762867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>652638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>565008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>279755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$82:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1208505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>725085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>666364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>541204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>602611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$83:$I$83</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1271298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1636559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1284785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1260253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1186451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1276953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6098049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$84:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1252317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>653776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>527141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>835564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425770</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$85:$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1243455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5958334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8200695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5874827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1626465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1237355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7293493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1233488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$I$86</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1320063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2034769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>703065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$87:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1266677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>938239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>561547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>642010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1278944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2401493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>442420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$92:$I$92</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>991484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1166779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>719258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>690663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>627234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>666569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>671182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$93:$I$93</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2597972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5933138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11066666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14458128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16338123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16222973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15641009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15761452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1337861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1950493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3238299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1860926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6532522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1376020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7412770</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1469781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="162655232"/>
+        <c:axId val="166025088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="162655232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166025088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166025088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162655232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13871,11 +17229,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100785152"/>
-        <c:axId val="101057664"/>
+        <c:axId val="131143936"/>
+        <c:axId val="131146112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100785152"/>
+        <c:axId val="131143936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13904,7 +17262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101057664"/>
+        <c:crossAx val="131146112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13912,7 +17270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101057664"/>
+        <c:axId val="131146112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13942,7 +17300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100785152"/>
+        <c:crossAx val="131143936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14177,11 +17535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101096448"/>
-        <c:axId val="101098624"/>
+        <c:axId val="131176704"/>
+        <c:axId val="131191168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101096448"/>
+        <c:axId val="131176704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14210,7 +17568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101098624"/>
+        <c:crossAx val="131191168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14218,7 +17576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101098624"/>
+        <c:axId val="131191168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14248,7 +17606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101096448"/>
+        <c:crossAx val="131176704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14479,11 +17837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101139200"/>
-        <c:axId val="101141120"/>
+        <c:axId val="131795200"/>
+        <c:axId val="131801472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101139200"/>
+        <c:axId val="131795200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14512,7 +17870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101141120"/>
+        <c:crossAx val="131801472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14520,7 +17878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101141120"/>
+        <c:axId val="131801472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14550,7 +17908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101139200"/>
+        <c:crossAx val="131795200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14615,6 +17973,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14780,11 +18139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101184256"/>
-        <c:axId val="101186176"/>
+        <c:axId val="131832064"/>
+        <c:axId val="131842432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101184256"/>
+        <c:axId val="131832064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14806,13 +18165,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101186176"/>
+        <c:crossAx val="131842432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14820,7 +18180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101186176"/>
+        <c:axId val="131842432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14843,19 +18203,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101184256"/>
+        <c:crossAx val="131832064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14913,6 +18275,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15078,11 +18441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101221120"/>
-        <c:axId val="101223040"/>
+        <c:axId val="132389120"/>
+        <c:axId val="132391296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101221120"/>
+        <c:axId val="132389120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15104,13 +18467,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101223040"/>
+        <c:crossAx val="132391296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15118,7 +18482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101223040"/>
+        <c:axId val="132391296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15141,19 +18505,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101221120"/>
+        <c:crossAx val="132389120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15376,11 +18742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101724928"/>
-        <c:axId val="101726848"/>
+        <c:axId val="132421888"/>
+        <c:axId val="132432256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101724928"/>
+        <c:axId val="132421888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15408,7 +18774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101726848"/>
+        <c:crossAx val="132432256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15416,7 +18782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101726848"/>
+        <c:axId val="132432256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15445,7 +18811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101724928"/>
+        <c:crossAx val="132421888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15674,11 +19040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101769600"/>
-        <c:axId val="101771520"/>
+        <c:axId val="132204800"/>
+        <c:axId val="132206976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101769600"/>
+        <c:axId val="132204800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15706,7 +19072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101771520"/>
+        <c:crossAx val="132206976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15714,7 +19080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101771520"/>
+        <c:axId val="132206976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15743,7 +19109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101769600"/>
+        <c:crossAx val="132204800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15768,16 +19134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15830,16 +19196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16624,6 +19990,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16916,8 +20314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
